--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.295705807103936</v>
+        <v>9.295705807103886</v>
       </c>
       <c r="D2">
-        <v>11.95359551248447</v>
+        <v>11.95359551248452</v>
       </c>
       <c r="E2">
-        <v>18.88334085157555</v>
+        <v>18.88334085157556</v>
       </c>
       <c r="F2">
-        <v>93.28030480298305</v>
+        <v>93.28030480298317</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.07867546705626</v>
+        <v>19.07867546705628</v>
       </c>
       <c r="J2">
-        <v>115.9986856927598</v>
+        <v>115.9986856927599</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.018740266699986</v>
+        <v>8.018740266700082</v>
       </c>
       <c r="D3">
-        <v>9.372781275533299</v>
+        <v>9.372781275533498</v>
       </c>
       <c r="E3">
-        <v>16.36683328528979</v>
+        <v>16.36683328528974</v>
       </c>
       <c r="F3">
-        <v>76.67606841247697</v>
+        <v>76.67606841247732</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.18573721172427</v>
+        <v>16.18573721172432</v>
       </c>
       <c r="J3">
         <v>102.2160992358748</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.397825915149698</v>
+        <v>7.397825915149639</v>
       </c>
       <c r="D4">
-        <v>8.226453451046769</v>
+        <v>8.22645345104648</v>
       </c>
       <c r="E4">
-        <v>15.13636976163129</v>
+        <v>15.13636976163119</v>
       </c>
       <c r="F4">
-        <v>69.16626572984011</v>
+        <v>69.16626572983898</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.82463848895427</v>
+        <v>14.82463848895412</v>
       </c>
       <c r="J4">
-        <v>95.1848017360991</v>
+        <v>95.18480173609835</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.160462907023993</v>
+        <v>7.160462907023961</v>
       </c>
       <c r="D5">
-        <v>7.806213475548915</v>
+        <v>7.806213475548793</v>
       </c>
       <c r="E5">
-        <v>14.66450002214087</v>
+        <v>14.6645000221408</v>
       </c>
       <c r="F5">
-        <v>66.39370667871228</v>
+        <v>66.39370667871157</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.31096855868106</v>
+        <v>14.310968558681</v>
       </c>
       <c r="J5">
-        <v>92.44628065953697</v>
+        <v>92.44628065953648</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>7.121682597772939</v>
       </c>
       <c r="D6">
-        <v>7.738488228516502</v>
+        <v>7.738488228516452</v>
       </c>
       <c r="E6">
-        <v>14.58732403377734</v>
+        <v>14.58732403377744</v>
       </c>
       <c r="F6">
-        <v>65.94596699685819</v>
+        <v>65.94596699685913</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.22737370067123</v>
+        <v>14.22737370067131</v>
       </c>
       <c r="J6">
-        <v>91.99632297422153</v>
+        <v>91.99632297422197</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.394576748841011</v>
+        <v>7.39457674884101</v>
       </c>
       <c r="D7">
-        <v>8.220634437407208</v>
+        <v>8.220634437407222</v>
       </c>
       <c r="E7">
-        <v>15.12991628532466</v>
+        <v>15.12991628532451</v>
       </c>
       <c r="F7">
-        <v>69.12794304289093</v>
+        <v>69.12794304289041</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.81758331256307</v>
+        <v>14.81758331256294</v>
       </c>
       <c r="J7">
-        <v>95.1474980682671</v>
+        <v>95.14749806826683</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D8">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E8">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F8">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J8">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D9">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E9">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F9">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J9">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D10">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E10">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F10">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J10">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D11">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E11">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F11">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J11">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D12">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E12">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F12">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J12">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D13">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E13">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F13">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J13">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D14">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E14">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F14">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J14">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D15">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E15">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F15">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J15">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D16">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E16">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F16">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J16">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D17">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E17">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F17">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J17">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D18">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E18">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F18">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J18">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D19">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E19">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F19">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J19">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D20">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E20">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F20">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J20">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D21">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E21">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F21">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J21">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D22">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E22">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F22">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J22">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D23">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E23">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F23">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J23">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D24">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E24">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F24">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J24">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.791014825160953</v>
+        <v>8.79101482516093</v>
       </c>
       <c r="D25">
-        <v>10.89643103140172</v>
+        <v>10.89643103140162</v>
       </c>
       <c r="E25">
-        <v>17.89045840411123</v>
+        <v>17.89045840411115</v>
       </c>
       <c r="F25">
-        <v>86.53017733599862</v>
+        <v>86.53017733599742</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.91839811596121</v>
+        <v>17.91839811596107</v>
       </c>
       <c r="J25">
-        <v>110.6693875044203</v>
+        <v>110.6693875044199</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -415,16 +415,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.295705807103886</v>
+        <v>9.295705807103936</v>
       </c>
       <c r="D2">
-        <v>11.95359551248452</v>
+        <v>11.95359551248447</v>
       </c>
       <c r="E2">
-        <v>18.88334085157556</v>
+        <v>18.88334085157555</v>
       </c>
       <c r="F2">
-        <v>93.28030480298317</v>
+        <v>93.28030480298305</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,10 +433,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.07867546705628</v>
+        <v>19.07867546705626</v>
       </c>
       <c r="J2">
-        <v>115.9986856927599</v>
+        <v>115.9986856927598</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -453,16 +453,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.018740266700082</v>
+        <v>8.018740266699986</v>
       </c>
       <c r="D3">
-        <v>9.372781275533498</v>
+        <v>9.372781275533299</v>
       </c>
       <c r="E3">
-        <v>16.36683328528974</v>
+        <v>16.36683328528979</v>
       </c>
       <c r="F3">
-        <v>76.67606841247732</v>
+        <v>76.67606841247697</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.18573721172432</v>
+        <v>16.18573721172427</v>
       </c>
       <c r="J3">
         <v>102.2160992358748</v>
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.397825915149639</v>
+        <v>7.397825915149698</v>
       </c>
       <c r="D4">
-        <v>8.22645345104648</v>
+        <v>8.226453451046769</v>
       </c>
       <c r="E4">
-        <v>15.13636976163119</v>
+        <v>15.13636976163129</v>
       </c>
       <c r="F4">
-        <v>69.16626572983898</v>
+        <v>69.16626572984011</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.82463848895412</v>
+        <v>14.82463848895427</v>
       </c>
       <c r="J4">
-        <v>95.18480173609835</v>
+        <v>95.1848017360991</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -529,16 +529,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.160462907023961</v>
+        <v>7.160462907023993</v>
       </c>
       <c r="D5">
-        <v>7.806213475548793</v>
+        <v>7.806213475548915</v>
       </c>
       <c r="E5">
-        <v>14.6645000221408</v>
+        <v>14.66450002214087</v>
       </c>
       <c r="F5">
-        <v>66.39370667871157</v>
+        <v>66.39370667871228</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.310968558681</v>
+        <v>14.31096855868106</v>
       </c>
       <c r="J5">
-        <v>92.44628065953648</v>
+        <v>92.44628065953697</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>7.121682597772939</v>
       </c>
       <c r="D6">
-        <v>7.738488228516452</v>
+        <v>7.738488228516502</v>
       </c>
       <c r="E6">
-        <v>14.58732403377744</v>
+        <v>14.58732403377734</v>
       </c>
       <c r="F6">
-        <v>65.94596699685913</v>
+        <v>65.94596699685819</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.22737370067131</v>
+        <v>14.22737370067123</v>
       </c>
       <c r="J6">
-        <v>91.99632297422197</v>
+        <v>91.99632297422153</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.39457674884101</v>
+        <v>7.394576748841011</v>
       </c>
       <c r="D7">
-        <v>8.220634437407222</v>
+        <v>8.220634437407208</v>
       </c>
       <c r="E7">
-        <v>15.12991628532451</v>
+        <v>15.12991628532466</v>
       </c>
       <c r="F7">
-        <v>69.12794304289041</v>
+        <v>69.12794304289093</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.81758331256294</v>
+        <v>14.81758331256307</v>
       </c>
       <c r="J7">
-        <v>95.14749806826683</v>
+        <v>95.1474980682671</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -643,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D8">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E8">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F8">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J8">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D9">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E9">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F9">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J9">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D10">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E10">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F10">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J10">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -757,16 +757,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D11">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E11">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F11">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J11">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D12">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E12">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F12">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J12">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D13">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E13">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F13">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J13">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D14">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E14">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F14">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,10 +889,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J14">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D15">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E15">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F15">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J15">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D16">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E16">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F16">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J16">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D17">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E17">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F17">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J17">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D18">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E18">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F18">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J18">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1061,16 +1061,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D19">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E19">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F19">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J19">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D20">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E20">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F20">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J20">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1137,16 +1137,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D21">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E21">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F21">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J21">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D22">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E22">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F22">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J22">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1213,16 +1213,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D23">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E23">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F23">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J23">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D24">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E24">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F24">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J24">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1289,16 +1289,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.79101482516093</v>
+        <v>8.791014825160953</v>
       </c>
       <c r="D25">
-        <v>10.89643103140162</v>
+        <v>10.89643103140172</v>
       </c>
       <c r="E25">
-        <v>17.89045840411115</v>
+        <v>17.89045840411123</v>
       </c>
       <c r="F25">
-        <v>86.53017733599742</v>
+        <v>86.53017733599862</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.91839811596107</v>
+        <v>17.91839811596121</v>
       </c>
       <c r="J25">
-        <v>110.6693875044199</v>
+        <v>110.6693875044203</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.295705807103936</v>
+        <v>9.182337069831494</v>
       </c>
       <c r="D2">
-        <v>11.95359551248447</v>
+        <v>11.54639411109462</v>
       </c>
       <c r="E2">
-        <v>18.88334085157555</v>
+        <v>18.68052572207017</v>
       </c>
       <c r="F2">
-        <v>93.28030480298305</v>
+        <v>91.34094138580438</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.637249472213666</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.07867546705626</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>115.9986856927598</v>
+        <v>18.79102354360199</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>114.8364273973857</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.018740266699986</v>
+        <v>7.953700035153394</v>
       </c>
       <c r="D3">
-        <v>9.372781275533299</v>
+        <v>9.082801989009329</v>
       </c>
       <c r="E3">
-        <v>16.36683328528979</v>
+        <v>16.25721992768897</v>
       </c>
       <c r="F3">
-        <v>76.67606841247697</v>
+        <v>75.5391124612983</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.756071726863104</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>16.18573721172427</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>102.2160992358748</v>
+        <v>16.01825918626768</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>101.5065299188884</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.397825915149698</v>
+        <v>7.344744981982985</v>
       </c>
       <c r="D4">
-        <v>8.226453451046769</v>
+        <v>7.966465641996202</v>
       </c>
       <c r="E4">
-        <v>15.13636976163129</v>
+        <v>15.04938063103553</v>
       </c>
       <c r="F4">
-        <v>69.16626572984011</v>
+        <v>68.25707157345984</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.810133841605903</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.82463848895427</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>95.1848017360991</v>
+        <v>14.68633723567631</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>94.5918000577921</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.160462907023993</v>
+        <v>7.111058135471931</v>
       </c>
       <c r="D5">
-        <v>7.806213475548915</v>
+        <v>7.555896742642472</v>
       </c>
       <c r="E5">
-        <v>14.66450002214087</v>
+        <v>14.58441761105993</v>
       </c>
       <c r="F5">
-        <v>66.39370667871228</v>
+        <v>65.56101583184355</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.830075454911813</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>14.31096855868106</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>92.44628065953697</v>
+        <v>14.18155772550954</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>91.89001252337033</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.121682597772939</v>
+        <v>7.072842273499899</v>
       </c>
       <c r="D6">
-        <v>7.738488228516502</v>
+        <v>7.489688143766481</v>
       </c>
       <c r="E6">
-        <v>14.58732403377734</v>
+        <v>14.50830006190616</v>
       </c>
       <c r="F6">
-        <v>65.94596699685819</v>
+        <v>65.12540545180575</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.833294992568994</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>14.22737370067123</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>91.99632297422153</v>
+        <v>14.09932411456692</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>91.44574600084383</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.394576748841011</v>
+        <v>7.341548901485815</v>
       </c>
       <c r="D7">
-        <v>8.220634437407208</v>
+        <v>7.960784090379419</v>
       </c>
       <c r="E7">
-        <v>15.12991628532466</v>
+        <v>15.04302705532985</v>
       </c>
       <c r="F7">
-        <v>69.12794304289093</v>
+        <v>68.21982579598927</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.810409545734342</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.81758331256307</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>95.1474980682671</v>
+        <v>14.67941073567295</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>94.555023086744</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D8">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E8">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F8">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D9">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E9">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F9">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D10">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E10">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F10">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D11">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E11">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F11">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D12">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E12">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F12">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D13">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E13">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F13">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D14">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E14">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F14">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D15">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E15">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F15">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D16">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E16">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F16">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D17">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E17">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F17">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D18">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E18">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F18">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D19">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E19">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F19">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D20">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E20">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F20">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D21">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E21">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F21">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D22">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E22">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F22">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D23">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E23">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F23">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D24">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E24">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F24">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.791014825160953</v>
+        <v>8.702909668006615</v>
       </c>
       <c r="D25">
-        <v>10.89643103140172</v>
+        <v>10.55049519144268</v>
       </c>
       <c r="E25">
-        <v>17.89045840411123</v>
+        <v>17.73664619316654</v>
       </c>
       <c r="F25">
-        <v>86.53017733599862</v>
+        <v>84.99831310994949</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.685226916667751</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.91839811596121</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>110.6693875044203</v>
+        <v>17.69388670838735</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>109.7417249668517</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>7.106292664741384</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5.925371314500819</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>8.062702595596674</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>22.54622503544754</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.091284996094474</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,137 +445,1103 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.583812119415207</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.87904850485515</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>16.21730293141733</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.1966634214595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>6.612198935251627</v>
+      </c>
+      <c r="D3">
+        <v>5.735078079736907</v>
+      </c>
+      <c r="E3">
+        <v>7.989500354383325</v>
+      </c>
+      <c r="F3">
+        <v>22.35129008885048</v>
+      </c>
+      <c r="G3">
+        <v>2.09781594874596</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>5.649072179000309</v>
+      </c>
+      <c r="K3">
+        <v>19.52170310731915</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.3178303493933</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>16.2363088107397</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>6.292110861151682</v>
+      </c>
+      <c r="D4">
+        <v>5.616899098036758</v>
+      </c>
+      <c r="E4">
+        <v>7.94912271348198</v>
+      </c>
+      <c r="F4">
+        <v>22.26130109377018</v>
+      </c>
+      <c r="G4">
+        <v>2.101938813547549</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>5.691634002543289</v>
+      </c>
+      <c r="K4">
+        <v>18.64070602420664</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>14.74251948914117</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>16.28365393895529</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>6.157431404083953</v>
+      </c>
+      <c r="D5">
+        <v>5.568464591898505</v>
+      </c>
+      <c r="E5">
+        <v>7.933801457512206</v>
+      </c>
+      <c r="F5">
+        <v>22.23182395539801</v>
+      </c>
+      <c r="G5">
+        <v>2.103648218102677</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>5.709592775879276</v>
+      </c>
+      <c r="K5">
+        <v>18.26968889045489</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.50247018532205</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>16.30841822960035</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>6.134810732656801</v>
+      </c>
+      <c r="D6">
+        <v>5.560407310973351</v>
+      </c>
+      <c r="E6">
+        <v>7.931325300753627</v>
+      </c>
+      <c r="F6">
+        <v>22.22735538365111</v>
+      </c>
+      <c r="G6">
+        <v>2.103933859590222</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>5.712611597961001</v>
+      </c>
+      <c r="K6">
+        <v>18.20735589797737</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.46227792445284</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>16.31285162290839</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>6.29031174870284</v>
+      </c>
+      <c r="D7">
+        <v>5.616246925103381</v>
+      </c>
+      <c r="E7">
+        <v>7.948911520732126</v>
+      </c>
+      <c r="F7">
+        <v>22.26087480385901</v>
+      </c>
+      <c r="G7">
+        <v>2.101961747329166</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>5.691873727952931</v>
+      </c>
+      <c r="K7">
+        <v>18.63575100237383</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>14.73930451881203</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>16.28396618044881</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>6.939374322888354</v>
+      </c>
+      <c r="D8">
+        <v>5.860070844478966</v>
+      </c>
+      <c r="E8">
+        <v>8.036505175026635</v>
+      </c>
+      <c r="F8">
+        <v>22.47268818229339</v>
+      </c>
+      <c r="G8">
+        <v>2.093514026603672</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>5.605788932306251</v>
+      </c>
+      <c r="K8">
+        <v>20.42088405200493</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>15.91204327315214</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>16.20537000264095</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>8.081371878515901</v>
+      </c>
+      <c r="D9">
+        <v>6.325197369785654</v>
+      </c>
+      <c r="E9">
+        <v>8.245161369440169</v>
+      </c>
+      <c r="F9">
+        <v>23.13484521466657</v>
+      </c>
+      <c r="G9">
+        <v>2.077798441371961</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5.457359049799978</v>
+      </c>
+      <c r="K9">
+        <v>23.5463680347216</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>18.03465665585533</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>16.24774904046794</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>8.843239143210953</v>
+      </c>
+      <c r="D10">
+        <v>6.656209675179325</v>
+      </c>
+      <c r="E10">
+        <v>8.421731219753523</v>
+      </c>
+      <c r="F10">
+        <v>23.78527523911629</v>
+      </c>
+      <c r="G10">
+        <v>2.066703439003173</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5.361689386109822</v>
+      </c>
+      <c r="K10">
+        <v>25.61800288734607</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>19.64303157388698</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>16.41751988978425</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9.173673332872944</v>
+      </c>
+      <c r="D11">
+        <v>6.804001855220086</v>
+      </c>
+      <c r="E11">
+        <v>8.507258768173267</v>
+      </c>
+      <c r="F11">
+        <v>24.11918170050037</v>
+      </c>
+      <c r="G11">
+        <v>2.061737839290017</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>5.321320106409165</v>
+      </c>
+      <c r="K11">
+        <v>26.51271423083766</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>20.3379941141053</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>16.52873996489255</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>9.296530214791094</v>
+      </c>
+      <c r="D12">
+        <v>6.859535136864163</v>
+      </c>
+      <c r="E12">
+        <v>8.540405448791377</v>
+      </c>
+      <c r="F12">
+        <v>24.25125933342837</v>
+      </c>
+      <c r="G12">
+        <v>2.05986777121926</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>5.306510419708522</v>
+      </c>
+      <c r="K12">
+        <v>26.84475638370394</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>20.59596444716819</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>16.57604740797098</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>9.270170980741495</v>
+      </c>
+      <c r="D13">
+        <v>6.847594723079141</v>
+      </c>
+      <c r="E13">
+        <v>8.533232775764631</v>
+      </c>
+      <c r="F13">
+        <v>24.22256097196096</v>
+      </c>
+      <c r="G13">
+        <v>2.060270089988909</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>5.309678308419262</v>
+      </c>
+      <c r="K13">
+        <v>26.77354452364508</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>20.54063572129498</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>16.56562336305891</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>9.18382606784774</v>
+      </c>
+      <c r="D14">
+        <v>6.808579437933406</v>
+      </c>
+      <c r="E14">
+        <v>8.509970486419848</v>
+      </c>
+      <c r="F14">
+        <v>24.12993398563517</v>
+      </c>
+      <c r="G14">
+        <v>2.061583789936267</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>5.320091990664261</v>
+      </c>
+      <c r="K14">
+        <v>26.54016657852258</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>20.35932116464237</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>16.5325262583396</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>9.130643046878584</v>
+      </c>
+      <c r="D15">
+        <v>6.784624299259645</v>
+      </c>
+      <c r="E15">
+        <v>8.495820863077236</v>
+      </c>
+      <c r="F15">
+        <v>24.07393572951507</v>
+      </c>
+      <c r="G15">
+        <v>2.06238976546897</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5.326533593081457</v>
+      </c>
+      <c r="K15">
+        <v>26.39633762011437</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>20.24758644027678</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>16.51293808281535</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>8.821323861282075</v>
+      </c>
+      <c r="D16">
+        <v>6.646492186140154</v>
+      </c>
+      <c r="E16">
+        <v>8.416247450266241</v>
+      </c>
+      <c r="F16">
+        <v>23.76423343851006</v>
+      </c>
+      <c r="G16">
+        <v>2.067029474212491</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5.364393024411624</v>
+      </c>
+      <c r="K16">
+        <v>25.5585794785496</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>19.59688243052254</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>16.41096158265719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>8.62746663283359</v>
+      </c>
+      <c r="D17">
+        <v>6.561014385369898</v>
+      </c>
+      <c r="E17">
+        <v>8.368772520887893</v>
+      </c>
+      <c r="F17">
+        <v>23.58410396756357</v>
+      </c>
+      <c r="G17">
+        <v>2.069895694545079</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5.388441977001587</v>
+      </c>
+      <c r="K17">
+        <v>25.03249110760837</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>19.18835308283682</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>16.35732788980723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>8.51444247383554</v>
+      </c>
+      <c r="D18">
+        <v>6.51158900268511</v>
+      </c>
+      <c r="E18">
+        <v>8.341955489155106</v>
+      </c>
+      <c r="F18">
+        <v>23.48406838955662</v>
+      </c>
+      <c r="G18">
+        <v>2.071552039128794</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5.402569309988862</v>
+      </c>
+      <c r="K18">
+        <v>24.72540460138998</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>18.94991875404036</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>16.32966121032528</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>8.475911448279598</v>
+      </c>
+      <c r="D19">
+        <v>6.494810684554977</v>
+      </c>
+      <c r="E19">
+        <v>8.332959412437761</v>
+      </c>
+      <c r="F19">
+        <v>23.4508058623024</v>
+      </c>
+      <c r="G19">
+        <v>2.072114225310757</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>5.407402561227464</v>
+      </c>
+      <c r="K19">
+        <v>24.62065581384001</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>18.86859255092611</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>16.32083080738458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>8.648260296726759</v>
+      </c>
+      <c r="D20">
+        <v>6.570140884457075</v>
+      </c>
+      <c r="E20">
+        <v>8.373775590723692</v>
+      </c>
+      <c r="F20">
+        <v>23.60290829911564</v>
+      </c>
+      <c r="G20">
+        <v>2.069589786294908</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>5.385851226599143</v>
+      </c>
+      <c r="K20">
+        <v>25.0889586274557</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>19.23219916771622</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>16.36270572463041</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>9.209248893840469</v>
+      </c>
+      <c r="D21">
+        <v>6.820051131049978</v>
+      </c>
+      <c r="E21">
+        <v>8.516782491744451</v>
+      </c>
+      <c r="F21">
+        <v>24.15698660968815</v>
+      </c>
+      <c r="G21">
+        <v>2.061197656980964</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>5.317020079864918</v>
+      </c>
+      <c r="K21">
+        <v>26.60889818534797</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>20.41271802276002</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>16.54210445644309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>9.562673359631333</v>
+      </c>
+      <c r="D22">
+        <v>6.9808510252541</v>
+      </c>
+      <c r="E22">
+        <v>8.614676569420237</v>
+      </c>
+      <c r="F22">
+        <v>24.55201775630125</v>
+      </c>
+      <c r="G22">
+        <v>2.055772179512303</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>5.274830235579684</v>
+      </c>
+      <c r="K22">
+        <v>27.56287961643744</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>21.15400501274771</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>16.68973846351475</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>9.375235884753224</v>
+      </c>
+      <c r="D23">
+        <v>6.895269590302044</v>
+      </c>
+      <c r="E23">
+        <v>8.562019592068918</v>
+      </c>
+      <c r="F23">
+        <v>24.33811993139973</v>
+      </c>
+      <c r="G23">
+        <v>2.058662941572356</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>5.29708324495612</v>
+      </c>
+      <c r="K23">
+        <v>27.05729333013596</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>20.76110622533069</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>16.6080665572176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>8.638864384744419</v>
+      </c>
+      <c r="D24">
+        <v>6.566015673406435</v>
+      </c>
+      <c r="E24">
+        <v>8.371512218104437</v>
+      </c>
+      <c r="F24">
+        <v>23.59439589947818</v>
+      </c>
+      <c r="G24">
+        <v>2.069728060781508</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.387021568256788</v>
+      </c>
+      <c r="K24">
+        <v>25.06344409400953</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>19.2123874640297</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>16.36026456089247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>7.786174849818559</v>
+      </c>
+      <c r="D25">
+        <v>6.201071462427905</v>
+      </c>
+      <c r="E25">
+        <v>8.184679742137989</v>
+      </c>
+      <c r="F25">
+        <v>22.9278098504222</v>
+      </c>
+      <c r="G25">
+        <v>2.081965533600016</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>5.495239522149777</v>
+      </c>
+      <c r="K25">
+        <v>22.74062184132861</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>17.47280990934009</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>16.2132818461128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.106292664741384</v>
+        <v>4.915327667582776</v>
       </c>
       <c r="D2">
-        <v>5.925371314500819</v>
+        <v>8.60625054328043</v>
       </c>
       <c r="E2">
-        <v>8.062702595596674</v>
+        <v>13.06961900017016</v>
       </c>
       <c r="F2">
-        <v>22.54622503544754</v>
+        <v>34.2322369635045</v>
       </c>
       <c r="G2">
-        <v>2.091284996094474</v>
+        <v>3.666014162855763</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.583812119415207</v>
+        <v>9.929445973404787</v>
       </c>
       <c r="K2">
-        <v>20.87904850485515</v>
+        <v>15.35771083111988</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.21730293141733</v>
+        <v>17.63982092207302</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.1966634214595</v>
+        <v>26.06952759829517</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.612198935251627</v>
+        <v>4.751136923475149</v>
       </c>
       <c r="D3">
-        <v>5.735078079736907</v>
+        <v>8.583700291697944</v>
       </c>
       <c r="E3">
-        <v>7.989500354383325</v>
+        <v>13.09279494133811</v>
       </c>
       <c r="F3">
-        <v>22.35129008885048</v>
+        <v>34.36639315128756</v>
       </c>
       <c r="G3">
-        <v>2.09781594874596</v>
+        <v>3.66843235246811</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.649072179000309</v>
+        <v>9.961639534516067</v>
       </c>
       <c r="K3">
-        <v>19.52170310731915</v>
+        <v>14.84199935339796</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.3178303493933</v>
+        <v>17.42979383864191</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.2363088107397</v>
+        <v>26.20177038389949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.292110861151682</v>
+        <v>4.648899802561806</v>
       </c>
       <c r="D4">
-        <v>5.616899098036758</v>
+        <v>8.570756156284787</v>
       </c>
       <c r="E4">
-        <v>7.94912271348198</v>
+        <v>13.10913539096495</v>
       </c>
       <c r="F4">
-        <v>22.26130109377018</v>
+        <v>34.45889491948046</v>
       </c>
       <c r="G4">
-        <v>2.101938813547549</v>
+        <v>3.669994763443318</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.691634002543289</v>
+        <v>9.982631862672298</v>
       </c>
       <c r="K4">
-        <v>18.64070602420664</v>
+        <v>14.51694248570413</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.74251948914117</v>
+        <v>17.3016017346342</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.28365393895529</v>
+        <v>26.29027466843648</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.157431404083953</v>
+        <v>4.606954362739823</v>
       </c>
       <c r="D5">
-        <v>5.568464591898505</v>
+        <v>8.565711138501667</v>
       </c>
       <c r="E5">
-        <v>7.933801457512206</v>
+        <v>13.11632476446715</v>
       </c>
       <c r="F5">
-        <v>22.23182395539801</v>
+        <v>34.49912585639795</v>
       </c>
       <c r="G5">
-        <v>2.103648218102677</v>
+        <v>3.670651044414726</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.709592775879276</v>
+        <v>9.991495006474928</v>
       </c>
       <c r="K5">
-        <v>18.26968889045489</v>
+        <v>14.38255056096052</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.50247018532205</v>
+        <v>17.24960546646446</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.30841822960035</v>
+        <v>26.3281712595824</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.134810732656801</v>
+        <v>4.599974560586289</v>
       </c>
       <c r="D6">
-        <v>5.560407310973351</v>
+        <v>8.564887383960814</v>
       </c>
       <c r="E6">
-        <v>7.931325300753627</v>
+        <v>13.11755059007074</v>
       </c>
       <c r="F6">
-        <v>22.22735538365111</v>
+        <v>34.50595898372826</v>
       </c>
       <c r="G6">
-        <v>2.103933859590222</v>
+        <v>3.67076120419943</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.712611597961001</v>
+        <v>9.992985377488059</v>
       </c>
       <c r="K6">
-        <v>18.20735589797737</v>
+        <v>14.3601241579516</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.46227792445284</v>
+        <v>17.24098767782301</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.31285162290839</v>
+        <v>26.33457430655873</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.29031174870284</v>
+        <v>4.648335154385606</v>
       </c>
       <c r="D7">
-        <v>5.616246925103381</v>
+        <v>8.570687182943185</v>
       </c>
       <c r="E7">
-        <v>7.948911520732126</v>
+        <v>13.10923020161433</v>
       </c>
       <c r="F7">
-        <v>22.26087480385901</v>
+        <v>34.4594272363326</v>
       </c>
       <c r="G7">
-        <v>2.101961747329166</v>
+        <v>3.67000353489026</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.691873727952931</v>
+        <v>9.982750143990698</v>
       </c>
       <c r="K7">
-        <v>18.63575100237383</v>
+        <v>14.51513758036532</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.73930451881203</v>
+        <v>17.30089944406624</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.28396618044881</v>
+        <v>26.29077835323674</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.939374322888354</v>
+        <v>4.859053332766459</v>
       </c>
       <c r="D8">
-        <v>5.860070844478966</v>
+        <v>8.59828992348654</v>
       </c>
       <c r="E8">
-        <v>8.036505175026635</v>
+        <v>13.07717199341025</v>
       </c>
       <c r="F8">
-        <v>22.47268818229339</v>
+        <v>34.27638494106843</v>
       </c>
       <c r="G8">
-        <v>2.093514026603672</v>
+        <v>3.666831880811502</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.605788932306251</v>
+        <v>9.940292277235246</v>
       </c>
       <c r="K8">
-        <v>20.42088405200493</v>
+        <v>15.18174471946128</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.91204327315214</v>
+        <v>17.56727515602407</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.20537000264095</v>
+        <v>26.11360424016588</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.081371878515901</v>
+        <v>5.257974874182158</v>
       </c>
       <c r="D9">
-        <v>6.325197369785654</v>
+        <v>8.659434449712853</v>
       </c>
       <c r="E9">
-        <v>8.245161369440169</v>
+        <v>13.03105555855071</v>
       </c>
       <c r="F9">
-        <v>23.13484521466657</v>
+        <v>33.99830394403976</v>
       </c>
       <c r="G9">
-        <v>2.077798441371961</v>
+        <v>3.66122531375461</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.457359049799978</v>
+        <v>9.866733574309698</v>
       </c>
       <c r="K9">
-        <v>23.5463680347216</v>
+        <v>16.41494500237435</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.03465665585533</v>
+        <v>18.09348284959993</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.24774904046794</v>
+        <v>25.82445113628345</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.843239143210953</v>
+        <v>5.538741265894954</v>
       </c>
       <c r="D10">
-        <v>6.656209675179325</v>
+        <v>8.70843894012935</v>
       </c>
       <c r="E10">
-        <v>8.421731219753523</v>
+        <v>13.0073892574817</v>
       </c>
       <c r="F10">
-        <v>23.78527523911629</v>
+        <v>33.84394338577175</v>
       </c>
       <c r="G10">
-        <v>2.066703439003173</v>
+        <v>3.657475764567983</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.361689386109822</v>
+        <v>9.818573994055239</v>
       </c>
       <c r="K10">
-        <v>25.61800288734607</v>
+        <v>17.26723596142308</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.64303157388698</v>
+        <v>18.47946372814801</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.41751988978425</v>
+        <v>25.64796422343681</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.173673332872944</v>
+        <v>5.6631488449933</v>
       </c>
       <c r="D11">
-        <v>6.804001855220086</v>
+        <v>8.731574031753036</v>
       </c>
       <c r="E11">
-        <v>8.507258768173267</v>
+        <v>12.9988405306453</v>
       </c>
       <c r="F11">
-        <v>24.11918170050037</v>
+        <v>33.78469535135773</v>
       </c>
       <c r="G11">
-        <v>2.061737839290017</v>
+        <v>3.655849372084386</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.321320106409165</v>
+        <v>9.797936363405039</v>
       </c>
       <c r="K11">
-        <v>26.51271423083766</v>
+        <v>17.6417855248859</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.3379941141053</v>
+        <v>18.65430161004878</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.52873996489255</v>
+        <v>25.57557279927125</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.296530214791094</v>
+        <v>5.709736007642201</v>
       </c>
       <c r="D12">
-        <v>6.859535136864163</v>
+        <v>8.740451838274899</v>
       </c>
       <c r="E12">
-        <v>8.540405448791377</v>
+        <v>12.99592197984225</v>
       </c>
       <c r="F12">
-        <v>24.25125933342837</v>
+        <v>33.76384715286247</v>
       </c>
       <c r="G12">
-        <v>2.05986777121926</v>
+        <v>3.655244835473668</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.306510419708522</v>
+        <v>9.790303666889072</v>
       </c>
       <c r="K12">
-        <v>26.84475638370394</v>
+        <v>17.78161826660041</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.59596444716819</v>
+        <v>18.72035013795032</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.57604740797098</v>
+        <v>25.54930254362755</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.270170980741495</v>
+        <v>5.699726589240771</v>
       </c>
       <c r="D13">
-        <v>6.847594723079141</v>
+        <v>8.738534705134031</v>
       </c>
       <c r="E13">
-        <v>8.533232775764631</v>
+        <v>12.99653637272266</v>
       </c>
       <c r="F13">
-        <v>24.22256097196096</v>
+        <v>33.76826641570745</v>
       </c>
       <c r="G13">
-        <v>2.060270089988909</v>
+        <v>3.655374529717502</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.309678308419262</v>
+        <v>9.791939401202695</v>
       </c>
       <c r="K13">
-        <v>26.77354452364508</v>
+        <v>17.75159336829838</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.54063572129498</v>
+        <v>18.70613327239433</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.56562336305891</v>
+        <v>25.55490936384382</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.18382606784774</v>
+        <v>5.666992334975352</v>
       </c>
       <c r="D14">
-        <v>6.808579437933406</v>
+        <v>8.732302092511583</v>
       </c>
       <c r="E14">
-        <v>8.509970486419848</v>
+        <v>12.99859403440574</v>
       </c>
       <c r="F14">
-        <v>24.12993398563517</v>
+        <v>33.78294828106539</v>
       </c>
       <c r="G14">
-        <v>2.061583789936267</v>
+        <v>3.655799409505498</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.320091990664261</v>
+        <v>9.797304764782902</v>
       </c>
       <c r="K14">
-        <v>26.54016657852258</v>
+        <v>17.65333032713171</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.35932116464237</v>
+        <v>18.65973893431823</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.5325262583396</v>
+        <v>25.57338858182312</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.130643046878584</v>
+        <v>5.646872216529079</v>
       </c>
       <c r="D15">
-        <v>6.784624299259645</v>
+        <v>8.728499555810174</v>
       </c>
       <c r="E15">
-        <v>8.495820863077236</v>
+        <v>12.99989590506498</v>
       </c>
       <c r="F15">
-        <v>24.07393572951507</v>
+        <v>33.79214840815364</v>
       </c>
       <c r="G15">
-        <v>2.06238976546897</v>
+        <v>3.656061136060582</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.326533593081457</v>
+        <v>9.800614938764408</v>
       </c>
       <c r="K15">
-        <v>26.39633762011437</v>
+        <v>17.59287778823541</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.24758644027678</v>
+        <v>18.63129888051856</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.51293808281535</v>
+        <v>25.58485669244501</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.821323861282075</v>
+        <v>5.530540131447559</v>
       </c>
       <c r="D16">
-        <v>6.646492186140154</v>
+        <v>8.706943614760608</v>
       </c>
       <c r="E16">
-        <v>8.416247450266241</v>
+        <v>13.00799254050631</v>
       </c>
       <c r="F16">
-        <v>23.76423343851006</v>
+        <v>33.84803703060333</v>
       </c>
       <c r="G16">
-        <v>2.067029474212491</v>
+        <v>3.657583643665869</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.364393024411624</v>
+        <v>9.819948244847938</v>
       </c>
       <c r="K16">
-        <v>25.5585794785496</v>
+        <v>17.24248384870513</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.59688243052254</v>
+        <v>18.46801821251968</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.41096158265719</v>
+        <v>25.65285467161075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.62746663283359</v>
+        <v>5.458290344937025</v>
       </c>
       <c r="D17">
-        <v>6.561014385369898</v>
+        <v>8.693932683013465</v>
       </c>
       <c r="E17">
-        <v>8.368772520887893</v>
+        <v>13.01352735169284</v>
       </c>
       <c r="F17">
-        <v>23.58410396756357</v>
+        <v>33.88514027062617</v>
       </c>
       <c r="G17">
-        <v>2.069895694545079</v>
+        <v>3.658537919777912</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.388441977001587</v>
+        <v>9.83213372621802</v>
       </c>
       <c r="K17">
-        <v>25.03249110760837</v>
+        <v>17.02407609160443</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.18835308283682</v>
+        <v>18.36762259143918</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.35732788980723</v>
+        <v>25.69659643978018</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.51444247383554</v>
+        <v>5.416424646589278</v>
       </c>
       <c r="D18">
-        <v>6.51158900268511</v>
+        <v>8.686528714195168</v>
       </c>
       <c r="E18">
-        <v>8.341955489155106</v>
+        <v>13.01691953652171</v>
       </c>
       <c r="F18">
-        <v>23.48406838955662</v>
+        <v>33.90751318145999</v>
       </c>
       <c r="G18">
-        <v>2.071552039128794</v>
+        <v>3.659094261443188</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.402569309988862</v>
+        <v>9.83926208988758</v>
       </c>
       <c r="K18">
-        <v>24.72540460138998</v>
+        <v>16.89722046982205</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.94991875404036</v>
+        <v>18.30981040085582</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.32966121032528</v>
+        <v>25.7224980476357</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.475911448279598</v>
+        <v>5.40219798760027</v>
       </c>
       <c r="D19">
-        <v>6.494810684554977</v>
+        <v>8.684035648327571</v>
       </c>
       <c r="E19">
-        <v>8.332959412437761</v>
+        <v>13.01810392133907</v>
       </c>
       <c r="F19">
-        <v>23.4508058623024</v>
+        <v>33.9152652138789</v>
       </c>
       <c r="G19">
-        <v>2.072114225310757</v>
+        <v>3.659283913513665</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.407402561227464</v>
+        <v>9.841696183284302</v>
       </c>
       <c r="K19">
-        <v>24.62065581384001</v>
+        <v>16.85406104325749</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.86859255092611</v>
+        <v>18.29022621656737</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.32083080738458</v>
+        <v>25.73139517504723</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.648260296726759</v>
+        <v>5.466013848398143</v>
       </c>
       <c r="D20">
-        <v>6.570140884457075</v>
+        <v>8.695309512707636</v>
       </c>
       <c r="E20">
-        <v>8.373775590723692</v>
+        <v>13.01291656202316</v>
       </c>
       <c r="F20">
-        <v>23.60290829911564</v>
+        <v>33.88108367313269</v>
       </c>
       <c r="G20">
-        <v>2.069589786294908</v>
+        <v>3.658435563054617</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.385851226599143</v>
+        <v>9.830824185681402</v>
       </c>
       <c r="K20">
-        <v>25.0889586274557</v>
+        <v>17.04745443455666</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.23219916771622</v>
+        <v>18.378317216698</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.36270572463041</v>
+        <v>25.69186315157459</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.209248893840469</v>
+        <v>5.676621726660722</v>
       </c>
       <c r="D21">
-        <v>6.820051131049978</v>
+        <v>8.734129618790117</v>
       </c>
       <c r="E21">
-        <v>8.516782491744451</v>
+        <v>12.99798100250421</v>
       </c>
       <c r="F21">
-        <v>24.15698660968815</v>
+        <v>33.77859269290246</v>
       </c>
       <c r="G21">
-        <v>2.061197656980964</v>
+        <v>3.655674304642679</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.317020079864918</v>
+        <v>9.795723881946163</v>
       </c>
       <c r="K21">
-        <v>26.60889818534797</v>
+        <v>17.68224767121075</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.41271802276002</v>
+        <v>18.6733707886591</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.54210445644309</v>
+        <v>25.56792971066876</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.562673359631333</v>
+        <v>5.811198025585145</v>
       </c>
       <c r="D22">
-        <v>6.9808510252541</v>
+        <v>8.760181050532125</v>
       </c>
       <c r="E22">
-        <v>8.614676569420237</v>
+        <v>12.99007704583275</v>
       </c>
       <c r="F22">
-        <v>24.55201775630125</v>
+        <v>33.72086777027088</v>
       </c>
       <c r="G22">
-        <v>2.055772179512303</v>
+        <v>3.653935750442916</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.274830235579684</v>
+        <v>9.773846383536757</v>
       </c>
       <c r="K22">
-        <v>27.56287961643744</v>
+        <v>18.08541682052683</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.15400501274771</v>
+        <v>18.86525694398528</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.68973846351475</v>
+        <v>25.49359673977315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.375235884753224</v>
+        <v>5.739666929392205</v>
       </c>
       <c r="D23">
-        <v>6.895269590302044</v>
+        <v>8.74621606584245</v>
       </c>
       <c r="E23">
-        <v>8.562019592068918</v>
+        <v>12.99412567009149</v>
       </c>
       <c r="F23">
-        <v>24.33811993139973</v>
+        <v>33.75082628426727</v>
       </c>
       <c r="G23">
-        <v>2.058662941572356</v>
+        <v>3.654857622148429</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.29708324495612</v>
+        <v>9.785425705200046</v>
       </c>
       <c r="K23">
-        <v>27.05729333013596</v>
+        <v>17.87134134095521</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.76110622533069</v>
+        <v>18.76294711259991</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.6080665572176</v>
+        <v>25.53265728040844</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.638864384744419</v>
+        <v>5.462523071606399</v>
       </c>
       <c r="D24">
-        <v>6.566015673406435</v>
+        <v>8.694686810388639</v>
       </c>
       <c r="E24">
-        <v>8.371512218104437</v>
+        <v>13.01319204543159</v>
       </c>
       <c r="F24">
-        <v>23.59439589947818</v>
+        <v>33.88291441652004</v>
       </c>
       <c r="G24">
-        <v>2.069728060781508</v>
+        <v>3.658481814491047</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.387021568256788</v>
+        <v>9.831415846507435</v>
       </c>
       <c r="K24">
-        <v>25.06344409400953</v>
+        <v>17.03688909570501</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.2123874640297</v>
+        <v>18.37348246363489</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.36026456089247</v>
+        <v>25.69400072338112</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.786174849818559</v>
+        <v>5.151981794312768</v>
       </c>
       <c r="D25">
-        <v>6.201071462427905</v>
+        <v>8.642161711870679</v>
       </c>
       <c r="E25">
-        <v>8.184679742137989</v>
+        <v>13.04173735028324</v>
       </c>
       <c r="F25">
-        <v>22.9278098504222</v>
+        <v>34.06480637533497</v>
       </c>
       <c r="G25">
-        <v>2.081965533600016</v>
+        <v>3.662676837090531</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.495239522149777</v>
+        <v>9.885597728209659</v>
       </c>
       <c r="K25">
-        <v>22.74062184132861</v>
+        <v>16.09020723062935</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.47280990934009</v>
+        <v>17.95102616608301</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.2132818461128</v>
+        <v>25.89639126278806</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.915327667582776</v>
+        <v>7.106292664741368</v>
       </c>
       <c r="D2">
-        <v>8.60625054328043</v>
+        <v>5.925371314500863</v>
       </c>
       <c r="E2">
-        <v>13.06961900017016</v>
+        <v>8.062702595596672</v>
       </c>
       <c r="F2">
-        <v>34.2322369635045</v>
+        <v>22.54622503544744</v>
       </c>
       <c r="G2">
-        <v>3.666014162855763</v>
+        <v>2.091284996094475</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.929445973404787</v>
+        <v>5.583812119415267</v>
       </c>
       <c r="K2">
-        <v>15.35771083111988</v>
+        <v>20.87904850485514</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>17.63982092207302</v>
+        <v>16.21730293141735</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.06952759829517</v>
+        <v>16.19666342145943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.751136923475149</v>
+        <v>6.612198935251461</v>
       </c>
       <c r="D3">
-        <v>8.583700291697944</v>
+        <v>5.735078079736881</v>
       </c>
       <c r="E3">
-        <v>13.09279494133811</v>
+        <v>7.989500354383217</v>
       </c>
       <c r="F3">
-        <v>34.36639315128756</v>
+        <v>22.35129008885022</v>
       </c>
       <c r="G3">
-        <v>3.66843235246811</v>
+        <v>2.09781594874636</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.961639534516067</v>
+        <v>5.649072179000312</v>
       </c>
       <c r="K3">
-        <v>14.84199935339796</v>
+        <v>19.52170310731921</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.42979383864191</v>
+        <v>15.31783034939326</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.20177038389949</v>
+        <v>16.23630881073947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.648899802561806</v>
+        <v>6.292110861151722</v>
       </c>
       <c r="D4">
-        <v>8.570756156284787</v>
+        <v>5.616899098036706</v>
       </c>
       <c r="E4">
-        <v>13.10913539096495</v>
+        <v>7.949122713481977</v>
       </c>
       <c r="F4">
-        <v>34.45889491948046</v>
+        <v>22.26130109377013</v>
       </c>
       <c r="G4">
-        <v>3.669994763443318</v>
+        <v>2.10193881354755</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.982631862672298</v>
+        <v>5.691634002543353</v>
       </c>
       <c r="K4">
-        <v>14.51694248570413</v>
+        <v>18.64070602420666</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>17.3016017346342</v>
+        <v>14.74251948914117</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.29027466843648</v>
+        <v>16.28365393895529</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.606954362739823</v>
+        <v>6.157431404083953</v>
       </c>
       <c r="D5">
-        <v>8.565711138501667</v>
+        <v>5.568464591898505</v>
       </c>
       <c r="E5">
-        <v>13.11632476446715</v>
+        <v>7.933801457512205</v>
       </c>
       <c r="F5">
-        <v>34.49912585639795</v>
+        <v>22.23182395539804</v>
       </c>
       <c r="G5">
-        <v>3.670651044414726</v>
+        <v>2.103648218102677</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.991495006474928</v>
+        <v>5.709592775879275</v>
       </c>
       <c r="K5">
-        <v>14.38255056096052</v>
+        <v>18.26968889045494</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>17.24960546646446</v>
+        <v>14.50247018532203</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.3281712595824</v>
+        <v>16.30841822960036</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.599974560586289</v>
+        <v>6.134810732656878</v>
       </c>
       <c r="D6">
-        <v>8.564887383960814</v>
+        <v>5.560407310973318</v>
       </c>
       <c r="E6">
-        <v>13.11755059007074</v>
+        <v>7.931325300753575</v>
       </c>
       <c r="F6">
-        <v>34.50595898372826</v>
+        <v>22.22735538365113</v>
       </c>
       <c r="G6">
-        <v>3.67076120419943</v>
+        <v>2.103933859590492</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.992985377488059</v>
+        <v>5.712611597961001</v>
       </c>
       <c r="K6">
-        <v>14.3601241579516</v>
+        <v>18.20735589797735</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>17.24098767782301</v>
+        <v>14.46227792445285</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.33457430655873</v>
+        <v>16.31285162290843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.648335154385606</v>
+        <v>6.290311748702855</v>
       </c>
       <c r="D7">
-        <v>8.570687182943185</v>
+        <v>5.616246925103412</v>
       </c>
       <c r="E7">
-        <v>13.10923020161433</v>
+        <v>7.948911520732187</v>
       </c>
       <c r="F7">
-        <v>34.4594272363326</v>
+        <v>22.26087480385898</v>
       </c>
       <c r="G7">
-        <v>3.67000353489026</v>
+        <v>2.101961747329299</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.982750143990698</v>
+        <v>5.691873727952838</v>
       </c>
       <c r="K7">
-        <v>14.51513758036532</v>
+        <v>18.63575100237382</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>17.30089944406624</v>
+        <v>14.73930451881203</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.29077835323674</v>
+        <v>16.28396618044879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.859053332766459</v>
+        <v>6.939374322888297</v>
       </c>
       <c r="D8">
-        <v>8.59828992348654</v>
+        <v>5.860070844478876</v>
       </c>
       <c r="E8">
-        <v>13.07717199341025</v>
+        <v>8.036505175026628</v>
       </c>
       <c r="F8">
-        <v>34.27638494106843</v>
+        <v>22.47268818229339</v>
       </c>
       <c r="G8">
-        <v>3.666831880811502</v>
+        <v>2.093514026604073</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.940292277235246</v>
+        <v>5.605788932306279</v>
       </c>
       <c r="K8">
-        <v>15.18174471946128</v>
+        <v>20.4208840520049</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.56727515602407</v>
+        <v>15.91204327315216</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.11360424016588</v>
+        <v>16.205370002641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.257974874182158</v>
+        <v>8.081371878516016</v>
       </c>
       <c r="D9">
-        <v>8.659434449712853</v>
+        <v>6.325197369785691</v>
       </c>
       <c r="E9">
-        <v>13.03105555855071</v>
+        <v>8.245161369440117</v>
       </c>
       <c r="F9">
-        <v>33.99830394403976</v>
+        <v>23.13484521466647</v>
       </c>
       <c r="G9">
-        <v>3.66122531375461</v>
+        <v>2.077798441371963</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.866733574309698</v>
+        <v>5.457359049799976</v>
       </c>
       <c r="K9">
-        <v>16.41494500237435</v>
+        <v>23.54636803472166</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.09348284959993</v>
+        <v>18.03465665585536</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.82445113628345</v>
+        <v>16.24774904046785</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.538741265894954</v>
+        <v>8.843239143210893</v>
       </c>
       <c r="D10">
-        <v>8.70843894012935</v>
+        <v>6.656209675179269</v>
       </c>
       <c r="E10">
-        <v>13.0073892574817</v>
+        <v>8.42173121975344</v>
       </c>
       <c r="F10">
-        <v>33.84394338577175</v>
+        <v>23.78527523911611</v>
       </c>
       <c r="G10">
-        <v>3.657475764567983</v>
+        <v>2.066703439003306</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.818573994055239</v>
+        <v>5.361689386109796</v>
       </c>
       <c r="K10">
-        <v>17.26723596142308</v>
+        <v>25.61800288734609</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.47946372814801</v>
+        <v>19.64303157388702</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.64796422343681</v>
+        <v>16.41751988978411</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.6631488449933</v>
+        <v>9.173673332872951</v>
       </c>
       <c r="D11">
-        <v>8.731574031753036</v>
+        <v>6.804001855220084</v>
       </c>
       <c r="E11">
-        <v>12.9988405306453</v>
+        <v>8.507258768173271</v>
       </c>
       <c r="F11">
-        <v>33.78469535135773</v>
+        <v>24.11918170050041</v>
       </c>
       <c r="G11">
-        <v>3.655849372084386</v>
+        <v>2.061737839290152</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.797936363405039</v>
+        <v>5.321320106409165</v>
       </c>
       <c r="K11">
-        <v>17.6417855248859</v>
+        <v>26.51271423083766</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.65430161004878</v>
+        <v>20.3379941141053</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.57557279927125</v>
+        <v>16.52873996489258</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.709736007642201</v>
+        <v>9.296530214791296</v>
       </c>
       <c r="D12">
-        <v>8.740451838274899</v>
+        <v>6.859535136864177</v>
       </c>
       <c r="E12">
-        <v>12.99592197984225</v>
+        <v>8.540405448791267</v>
       </c>
       <c r="F12">
-        <v>33.76384715286247</v>
+        <v>24.2512593334283</v>
       </c>
       <c r="G12">
-        <v>3.655244835473668</v>
+        <v>2.059867771219261</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.790303666889072</v>
+        <v>5.306510419708404</v>
       </c>
       <c r="K12">
-        <v>17.78161826660041</v>
+        <v>26.84475638370397</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.72035013795032</v>
+        <v>20.59596444716824</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.54930254362755</v>
+        <v>16.57604740797093</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.699726589240771</v>
+        <v>9.270170980741495</v>
       </c>
       <c r="D13">
-        <v>8.738534705134031</v>
+        <v>6.84759472307913</v>
       </c>
       <c r="E13">
-        <v>12.99653637272266</v>
+        <v>8.533232775764588</v>
       </c>
       <c r="F13">
-        <v>33.76826641570745</v>
+        <v>24.22256097196091</v>
       </c>
       <c r="G13">
-        <v>3.655374529717502</v>
+        <v>2.060270089989042</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.791939401202695</v>
+        <v>5.30967830841923</v>
       </c>
       <c r="K13">
-        <v>17.75159336829838</v>
+        <v>26.77354452364509</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.70613327239433</v>
+        <v>20.540635721295</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.55490936384382</v>
+        <v>16.56562336305889</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.666992334975352</v>
+        <v>9.183826067847672</v>
       </c>
       <c r="D14">
-        <v>8.732302092511583</v>
+        <v>6.808579437933323</v>
       </c>
       <c r="E14">
-        <v>12.99859403440574</v>
+        <v>8.509970486419819</v>
       </c>
       <c r="F14">
-        <v>33.78294828106539</v>
+        <v>24.12993398563508</v>
       </c>
       <c r="G14">
-        <v>3.655799409505498</v>
+        <v>2.0615837899364</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.797304764782902</v>
+        <v>5.320091990664323</v>
       </c>
       <c r="K14">
-        <v>17.65333032713171</v>
+        <v>26.54016657852258</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.65973893431823</v>
+        <v>20.35932116464238</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.57338858182312</v>
+        <v>16.53252625833955</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.646872216529079</v>
+        <v>9.130643046878568</v>
       </c>
       <c r="D15">
-        <v>8.728499555810174</v>
+        <v>6.784624299259742</v>
       </c>
       <c r="E15">
-        <v>12.99989590506498</v>
+        <v>8.495820863077304</v>
       </c>
       <c r="F15">
-        <v>33.79214840815364</v>
+        <v>24.07393572951501</v>
       </c>
       <c r="G15">
-        <v>3.656061136060582</v>
+        <v>2.06238976546897</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.800614938764408</v>
+        <v>5.326533593081456</v>
       </c>
       <c r="K15">
-        <v>17.59287778823541</v>
+        <v>26.39633762011438</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.63129888051856</v>
+        <v>20.24758644027676</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.58485669244501</v>
+        <v>16.51293808281522</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.530540131447559</v>
+        <v>8.821323861282076</v>
       </c>
       <c r="D16">
-        <v>8.706943614760608</v>
+        <v>6.646492186140092</v>
       </c>
       <c r="E16">
-        <v>13.00799254050631</v>
+        <v>8.416247450266193</v>
       </c>
       <c r="F16">
-        <v>33.84803703060333</v>
+        <v>23.76423343851004</v>
       </c>
       <c r="G16">
-        <v>3.657583643665869</v>
+        <v>2.067029474212489</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.819948244847938</v>
+        <v>5.36439302441162</v>
       </c>
       <c r="K16">
-        <v>17.24248384870513</v>
+        <v>25.55857947854962</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.46801821251968</v>
+        <v>19.59688243052256</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.65285467161075</v>
+        <v>16.4109615826572</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.458290344937025</v>
+        <v>8.627466632833682</v>
       </c>
       <c r="D17">
-        <v>8.693932683013465</v>
+        <v>6.561014385369793</v>
       </c>
       <c r="E17">
-        <v>13.01352735169284</v>
+        <v>8.368772520887902</v>
       </c>
       <c r="F17">
-        <v>33.88514027062617</v>
+        <v>23.58410396756354</v>
       </c>
       <c r="G17">
-        <v>3.658537919777912</v>
+        <v>2.069895694545345</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.83213372621802</v>
+        <v>5.388441977001592</v>
       </c>
       <c r="K17">
-        <v>17.02407609160443</v>
+        <v>25.03249110760833</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.36762259143918</v>
+        <v>19.18835308283679</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.69659643978018</v>
+        <v>16.35732788980727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.416424646589278</v>
+        <v>8.514442473835583</v>
       </c>
       <c r="D18">
-        <v>8.686528714195168</v>
+        <v>6.511589002685139</v>
       </c>
       <c r="E18">
-        <v>13.01691953652171</v>
+        <v>8.341955489155181</v>
       </c>
       <c r="F18">
-        <v>33.90751318145999</v>
+        <v>23.48406838955648</v>
       </c>
       <c r="G18">
-        <v>3.659094261443188</v>
+        <v>2.071552039128928</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.83926208988758</v>
+        <v>5.402569309988951</v>
       </c>
       <c r="K18">
-        <v>16.89722046982205</v>
+        <v>24.72540460139003</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.30981040085582</v>
+        <v>18.94991875404038</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.7224980476357</v>
+        <v>16.32966121032512</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.40219798760027</v>
+        <v>8.475911448279669</v>
       </c>
       <c r="D19">
-        <v>8.684035648327571</v>
+        <v>6.494810684555004</v>
       </c>
       <c r="E19">
-        <v>13.01810392133907</v>
+        <v>8.332959412437729</v>
       </c>
       <c r="F19">
-        <v>33.9152652138789</v>
+        <v>23.45080586230223</v>
       </c>
       <c r="G19">
-        <v>3.659283913513665</v>
+        <v>2.072114225310758</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.841696183284302</v>
+        <v>5.407402561227434</v>
       </c>
       <c r="K19">
-        <v>16.85406104325749</v>
+        <v>24.62065581384006</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.29022621656737</v>
+        <v>18.86859255092616</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.73139517504723</v>
+        <v>16.32083080738444</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.466013848398143</v>
+        <v>8.648260296726791</v>
       </c>
       <c r="D20">
-        <v>8.695309512707636</v>
+        <v>6.570140884456956</v>
       </c>
       <c r="E20">
-        <v>13.01291656202316</v>
+        <v>8.3737755907236</v>
       </c>
       <c r="F20">
-        <v>33.88108367313269</v>
+        <v>23.60290829911566</v>
       </c>
       <c r="G20">
-        <v>3.658435563054617</v>
+        <v>2.069589786295043</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.830824185681402</v>
+        <v>5.385851226599138</v>
       </c>
       <c r="K20">
-        <v>17.04745443455666</v>
+        <v>25.08895862745574</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.378317216698</v>
+        <v>19.23219916771624</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.69186315157459</v>
+        <v>16.36270572463044</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.676621726660722</v>
+        <v>9.209248893840423</v>
       </c>
       <c r="D21">
-        <v>8.734129618790117</v>
+        <v>6.820051131050069</v>
       </c>
       <c r="E21">
-        <v>12.99798100250421</v>
+        <v>8.516782491744323</v>
       </c>
       <c r="F21">
-        <v>33.77859269290246</v>
+        <v>24.15698660968825</v>
       </c>
       <c r="G21">
-        <v>3.655674304642679</v>
+        <v>2.06119765698083</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.795723881946163</v>
+        <v>5.317020079864773</v>
       </c>
       <c r="K21">
-        <v>17.68224767121075</v>
+        <v>26.60889818534797</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.6733707886591</v>
+        <v>20.41271802276003</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.56792971066876</v>
+        <v>16.54210445644313</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.811198025585145</v>
+        <v>9.562673359631438</v>
       </c>
       <c r="D22">
-        <v>8.760181050532125</v>
+        <v>6.980851025254137</v>
       </c>
       <c r="E22">
-        <v>12.99007704583275</v>
+        <v>8.614676569420329</v>
       </c>
       <c r="F22">
-        <v>33.72086777027088</v>
+        <v>24.55201775630118</v>
       </c>
       <c r="G22">
-        <v>3.653935750442916</v>
+        <v>2.055772179512168</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.773846383536757</v>
+        <v>5.274830235579658</v>
       </c>
       <c r="K22">
-        <v>18.08541682052683</v>
+        <v>27.5628796164375</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.86525694398528</v>
+        <v>21.15400501274774</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.49359673977315</v>
+        <v>16.68973846351466</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.739666929392205</v>
+        <v>9.375235884753231</v>
       </c>
       <c r="D23">
-        <v>8.74621606584245</v>
+        <v>6.895269590302011</v>
       </c>
       <c r="E23">
-        <v>12.99412567009149</v>
+        <v>8.562019592068953</v>
       </c>
       <c r="F23">
-        <v>33.75082628426727</v>
+        <v>24.33811993139965</v>
       </c>
       <c r="G23">
-        <v>3.654857622148429</v>
+        <v>2.058662941572223</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.785425705200046</v>
+        <v>5.297083244956117</v>
       </c>
       <c r="K23">
-        <v>17.87134134095521</v>
+        <v>27.05729333013597</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.76294711259991</v>
+        <v>20.76110622533071</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.53265728040844</v>
+        <v>16.60806655721754</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.462523071606399</v>
+        <v>8.638864384744339</v>
       </c>
       <c r="D24">
-        <v>8.694686810388639</v>
+        <v>6.566015673406365</v>
       </c>
       <c r="E24">
-        <v>13.01319204543159</v>
+        <v>8.371512218104353</v>
       </c>
       <c r="F24">
-        <v>33.88291441652004</v>
+        <v>23.59439589947811</v>
       </c>
       <c r="G24">
-        <v>3.658481814491047</v>
+        <v>2.069728060781375</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.831415846507435</v>
+        <v>5.387021568256761</v>
       </c>
       <c r="K24">
-        <v>17.03688909570501</v>
+        <v>25.06344409400956</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.37348246363489</v>
+        <v>19.21238746402975</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.69400072338112</v>
+        <v>16.36026456089243</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.151981794312768</v>
+        <v>7.786174849818557</v>
       </c>
       <c r="D25">
-        <v>8.642161711870679</v>
+        <v>6.201071462427874</v>
       </c>
       <c r="E25">
-        <v>13.04173735028324</v>
+        <v>8.184679742137892</v>
       </c>
       <c r="F25">
-        <v>34.06480637533497</v>
+        <v>22.92780985042222</v>
       </c>
       <c r="G25">
-        <v>3.662676837090531</v>
+        <v>2.081965533600016</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.885597728209659</v>
+        <v>5.495239522149714</v>
       </c>
       <c r="K25">
-        <v>16.09020723062935</v>
+        <v>22.74062184132859</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.95102616608301</v>
+        <v>17.47280990934007</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.89639126278806</v>
+        <v>16.21328184611282</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.106292664741368</v>
+        <v>9.589945118647163</v>
       </c>
       <c r="D2">
-        <v>5.925371314500863</v>
+        <v>2.733101545912777</v>
       </c>
       <c r="E2">
-        <v>8.062702595596672</v>
+        <v>17.29076793954181</v>
       </c>
       <c r="F2">
-        <v>22.54622503544744</v>
+        <v>23.35377722505222</v>
       </c>
       <c r="G2">
-        <v>2.091284996094475</v>
+        <v>33.23645937656164</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.145093563633332</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>5.102169081435429</v>
       </c>
       <c r="J2">
-        <v>5.583812119415267</v>
+        <v>9.701713296363595</v>
       </c>
       <c r="K2">
-        <v>20.87904850485514</v>
+        <v>15.04124433703951</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.21730293141735</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.43762243423106</v>
       </c>
       <c r="O2">
-        <v>16.19666342145943</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>98.52812151056291</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.612198935251461</v>
+        <v>9.205712994087637</v>
       </c>
       <c r="D3">
-        <v>5.735078079736881</v>
+        <v>2.858202776444017</v>
       </c>
       <c r="E3">
-        <v>7.989500354383217</v>
+        <v>16.19554157895786</v>
       </c>
       <c r="F3">
-        <v>22.35129008885022</v>
+        <v>22.07193942753006</v>
       </c>
       <c r="G3">
-        <v>2.09781594874636</v>
+        <v>31.01353942041979</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4.378038345822195</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.57992072881652</v>
       </c>
       <c r="J3">
-        <v>5.649072179000312</v>
+        <v>9.506687248509717</v>
       </c>
       <c r="K3">
-        <v>19.52170310731921</v>
+        <v>14.70390668939416</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.31783034939326</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.61596543459024</v>
       </c>
       <c r="O3">
-        <v>16.23630881073947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>91.3944996304387</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.292110861151722</v>
+        <v>8.956155447500674</v>
       </c>
       <c r="D4">
-        <v>5.616899098036706</v>
+        <v>2.933096094666782</v>
       </c>
       <c r="E4">
-        <v>7.949122713481977</v>
+        <v>15.56454409080493</v>
       </c>
       <c r="F4">
-        <v>22.26130109377013</v>
+        <v>21.32252386308345</v>
       </c>
       <c r="G4">
-        <v>2.10193881354755</v>
+        <v>29.70344083345924</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.912844128764258</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.259599492249186</v>
       </c>
       <c r="J4">
-        <v>5.691634002543353</v>
+        <v>9.411332838678625</v>
       </c>
       <c r="K4">
-        <v>18.64070602420666</v>
+        <v>14.54885865251274</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.74251948914117</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.08529149343045</v>
       </c>
       <c r="O4">
-        <v>16.28365393895529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>86.85431125041529</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.157431404083953</v>
+        <v>8.860193604256448</v>
       </c>
       <c r="D5">
-        <v>5.568464591898505</v>
+        <v>2.964942473552817</v>
       </c>
       <c r="E5">
-        <v>7.933801457512205</v>
+        <v>15.31363673070063</v>
       </c>
       <c r="F5">
-        <v>22.23182395539804</v>
+        <v>21.00710957882581</v>
       </c>
       <c r="G5">
-        <v>2.103648218102677</v>
+        <v>29.14819733822258</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.723488191314343</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.128405764506341</v>
       </c>
       <c r="J5">
-        <v>5.709592775879275</v>
+        <v>9.371228439059978</v>
       </c>
       <c r="K5">
-        <v>18.26968889045494</v>
+        <v>14.48116764966906</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.50247018532203</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10.86135488824667</v>
       </c>
       <c r="O5">
-        <v>16.30841822960036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>84.96013921116091</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.134810732656878</v>
+        <v>8.855027154846699</v>
       </c>
       <c r="D6">
-        <v>5.560407310973318</v>
+        <v>2.972269625580066</v>
       </c>
       <c r="E6">
-        <v>7.931325300753575</v>
+        <v>15.27614803541086</v>
       </c>
       <c r="F6">
-        <v>22.22735538365113</v>
+        <v>20.93203505931901</v>
       </c>
       <c r="G6">
-        <v>2.103933859590492</v>
+        <v>29.01462012457374</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.691392256003318</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.106271537092673</v>
       </c>
       <c r="J6">
-        <v>5.712611597961001</v>
+        <v>9.356594546319172</v>
       </c>
       <c r="K6">
-        <v>18.20735589797735</v>
+        <v>14.45078172637155</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.46227792445285</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10.82273087639963</v>
       </c>
       <c r="O6">
-        <v>16.31285162290843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>84.64272257753619</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.290311748702855</v>
+        <v>8.984371397341704</v>
       </c>
       <c r="D7">
-        <v>5.616246925103412</v>
+        <v>2.939216745541319</v>
       </c>
       <c r="E7">
-        <v>7.948911520732187</v>
+        <v>15.57369631938181</v>
       </c>
       <c r="F7">
-        <v>22.26087480385898</v>
+        <v>21.25562338330746</v>
       </c>
       <c r="G7">
-        <v>2.101961747329299</v>
+        <v>29.58274024602331</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.908441245385284</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.25665555670161</v>
       </c>
       <c r="J7">
-        <v>5.691873727952838</v>
+        <v>9.388126048370717</v>
       </c>
       <c r="K7">
-        <v>18.63575100237382</v>
+        <v>14.49370449872743</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.73930451881203</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.07959375033068</v>
       </c>
       <c r="O7">
-        <v>16.28396618044879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>86.82851441561698</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.939374322888297</v>
+        <v>9.497667111434216</v>
       </c>
       <c r="D8">
-        <v>5.860070844478876</v>
+        <v>2.7846824368098</v>
       </c>
       <c r="E8">
-        <v>8.036505175026628</v>
+        <v>16.93812447380357</v>
       </c>
       <c r="F8">
-        <v>22.47268818229339</v>
+        <v>22.82489699170531</v>
       </c>
       <c r="G8">
-        <v>2.093514026604073</v>
+        <v>32.31777831434658</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.876586794437071</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.919694657195875</v>
       </c>
       <c r="J8">
-        <v>5.605788932306279</v>
+        <v>9.599241739614616</v>
       </c>
       <c r="K8">
-        <v>20.4208840520049</v>
+        <v>14.84172626258131</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.91204327315216</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.15631379657132</v>
       </c>
       <c r="O8">
-        <v>16.205370002641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>96.09853418750288</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.081371878516016</v>
+        <v>10.3348965748167</v>
       </c>
       <c r="D9">
-        <v>6.325197369785691</v>
+        <v>2.447633630384716</v>
       </c>
       <c r="E9">
-        <v>8.245161369440117</v>
+        <v>19.43827671074589</v>
       </c>
       <c r="F9">
-        <v>23.13484521466647</v>
+        <v>26.3398334712851</v>
       </c>
       <c r="G9">
-        <v>2.077798441371963</v>
+        <v>38.43588356000248</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>6.864002014661157</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.247582601012485</v>
       </c>
       <c r="J9">
-        <v>5.457359049799976</v>
+        <v>10.27717586170549</v>
       </c>
       <c r="K9">
-        <v>23.54636803472166</v>
+        <v>16.10278556580976</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.03465665585536</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.07989775248927</v>
       </c>
       <c r="O9">
-        <v>16.24774904046785</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>113.2176218762518</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.843239143210893</v>
+        <v>10.94632502208152</v>
       </c>
       <c r="D10">
-        <v>6.656209675179269</v>
+        <v>2.208502629888009</v>
       </c>
       <c r="E10">
-        <v>8.42173121975344</v>
+        <v>21.34720851420419</v>
       </c>
       <c r="F10">
-        <v>23.78527523911611</v>
+        <v>29.32079477746824</v>
       </c>
       <c r="G10">
-        <v>2.066703439003306</v>
+        <v>43.05505977705151</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.442451023052563</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>7.276203663033054</v>
       </c>
       <c r="J10">
-        <v>5.361689386109796</v>
+        <v>10.84768446397642</v>
       </c>
       <c r="K10">
-        <v>25.61800288734609</v>
+        <v>17.28917482316186</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.64303157388702</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.55608785623581</v>
       </c>
       <c r="O10">
-        <v>16.41751988978411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>125.5534397754178</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.173673332872951</v>
+        <v>11.93706346465846</v>
       </c>
       <c r="D11">
-        <v>6.804001855220084</v>
+        <v>2.686046069531959</v>
       </c>
       <c r="E11">
-        <v>8.507258768173271</v>
+        <v>24.26284759147484</v>
       </c>
       <c r="F11">
-        <v>24.11918170050041</v>
+        <v>28.74921709007607</v>
       </c>
       <c r="G11">
-        <v>2.061737839290152</v>
+        <v>41.79619480875392</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.362465979418717</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>7.75148346407165</v>
       </c>
       <c r="J11">
-        <v>5.321320106409165</v>
+        <v>10.34320798764431</v>
       </c>
       <c r="K11">
-        <v>26.51271423083766</v>
+        <v>16.3874635994602</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.3379941141053</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>17.5147367028917</v>
       </c>
       <c r="O11">
-        <v>16.52873996489258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>131.2315201852585</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.296530214791296</v>
+        <v>12.64523790715628</v>
       </c>
       <c r="D12">
-        <v>6.859535136864177</v>
+        <v>3.137595092120151</v>
       </c>
       <c r="E12">
-        <v>8.540405448791267</v>
+        <v>26.35235624890367</v>
       </c>
       <c r="F12">
-        <v>24.2512593334283</v>
+        <v>27.7038898144657</v>
       </c>
       <c r="G12">
-        <v>2.059867771219261</v>
+        <v>39.91016883071065</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.09321392523916</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>7.944479765212001</v>
       </c>
       <c r="J12">
-        <v>5.306510419708404</v>
+        <v>9.849204858472183</v>
       </c>
       <c r="K12">
-        <v>26.84475638370397</v>
+        <v>15.3187879412433</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.59596444716824</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>18.89674345734217</v>
       </c>
       <c r="O12">
-        <v>16.57604740797093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>133.4169603055693</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.270170980741495</v>
+        <v>13.23625826943889</v>
       </c>
       <c r="D13">
-        <v>6.84759472307913</v>
+        <v>3.530867452614432</v>
       </c>
       <c r="E13">
-        <v>8.533232775764588</v>
+        <v>28.00957710648341</v>
       </c>
       <c r="F13">
-        <v>24.22256097196091</v>
+        <v>26.02959989603314</v>
       </c>
       <c r="G13">
-        <v>2.060270089989042</v>
+        <v>37.06903468417381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.67210527006384</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>7.912867173297528</v>
       </c>
       <c r="J13">
-        <v>5.30967830841923</v>
+        <v>9.123753362913508</v>
       </c>
       <c r="K13">
-        <v>26.77354452364509</v>
+        <v>13.85741529386109</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.540635721295</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>19.95073444639443</v>
       </c>
       <c r="O13">
-        <v>16.56562336305889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>132.9451889974296</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.183826067847672</v>
+        <v>13.61162972650938</v>
       </c>
       <c r="D14">
-        <v>6.808579437933323</v>
+        <v>3.79209868970615</v>
       </c>
       <c r="E14">
-        <v>8.509970486419819</v>
+        <v>29.00215217727522</v>
       </c>
       <c r="F14">
-        <v>24.12993398563508</v>
+        <v>24.52546180805398</v>
       </c>
       <c r="G14">
-        <v>2.0615837899364</v>
+        <v>34.56538905192944</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.04479434701046</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>7.789663072890001</v>
       </c>
       <c r="J14">
-        <v>5.320091990664323</v>
+        <v>8.489804836413075</v>
       </c>
       <c r="K14">
-        <v>26.54016657852258</v>
+        <v>12.614935280332</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.35932116464238</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>20.55774209285939</v>
       </c>
       <c r="O14">
-        <v>16.53252625833955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>131.4123384755403</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.130643046878568</v>
+        <v>13.6859042748076</v>
       </c>
       <c r="D15">
-        <v>6.784624299259742</v>
+        <v>3.84844829984058</v>
       </c>
       <c r="E15">
-        <v>8.495820863077304</v>
+        <v>29.15634487214899</v>
       </c>
       <c r="F15">
-        <v>24.07393572951501</v>
+        <v>23.9923044701485</v>
       </c>
       <c r="G15">
-        <v>2.06238976546897</v>
+        <v>33.69131944409296</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.07627001321029</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>7.710053657972374</v>
       </c>
       <c r="J15">
-        <v>5.326533593081456</v>
+        <v>8.271153890217878</v>
       </c>
       <c r="K15">
-        <v>26.39633762011438</v>
+        <v>12.19082931623215</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.24758644027676</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>20.63462746640802</v>
       </c>
       <c r="O15">
-        <v>16.51293808281522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>130.4752856791723</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.821323861282076</v>
+        <v>13.37912944206846</v>
       </c>
       <c r="D16">
-        <v>6.646492186140092</v>
+        <v>3.71095839722292</v>
       </c>
       <c r="E16">
-        <v>8.416247450266193</v>
+        <v>28.18028503775826</v>
       </c>
       <c r="F16">
-        <v>23.76423343851004</v>
+        <v>22.66584903819744</v>
       </c>
       <c r="G16">
-        <v>2.067029474212489</v>
+        <v>31.61440397040049</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.33695950644861</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>7.241695745424999</v>
       </c>
       <c r="J16">
-        <v>5.36439302441162</v>
+        <v>7.849876233254058</v>
       </c>
       <c r="K16">
-        <v>25.55857947854962</v>
+        <v>11.24701124916655</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.59688243052256</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>19.89311777171297</v>
       </c>
       <c r="O16">
-        <v>16.4109615826572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>125.1507125933706</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.627466632833682</v>
+        <v>12.92753667877849</v>
       </c>
       <c r="D17">
-        <v>6.561014385369793</v>
+        <v>3.454477919069385</v>
       </c>
       <c r="E17">
-        <v>8.368772520887902</v>
+        <v>26.85905926827784</v>
       </c>
       <c r="F17">
-        <v>23.58410396756354</v>
+        <v>22.53284424012294</v>
       </c>
       <c r="G17">
-        <v>2.069895694545345</v>
+        <v>31.51136890648029</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.521959494903653</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6.955343437893044</v>
       </c>
       <c r="J17">
-        <v>5.388441977001592</v>
+        <v>8.046406800956319</v>
       </c>
       <c r="K17">
-        <v>25.03249110760833</v>
+        <v>11.27763064947164</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.18835308283679</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>18.97252529328938</v>
       </c>
       <c r="O17">
-        <v>16.35732788980727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>121.9183692278355</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.514442473835583</v>
+        <v>12.29382001851584</v>
       </c>
       <c r="D18">
-        <v>6.511589002685139</v>
+        <v>3.078868955655886</v>
       </c>
       <c r="E18">
-        <v>8.341955489155181</v>
+        <v>25.09638019006858</v>
       </c>
       <c r="F18">
-        <v>23.48406838955648</v>
+        <v>23.44659866398733</v>
       </c>
       <c r="G18">
-        <v>2.071552039128928</v>
+        <v>33.16453971798219</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.62259100738663</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6.789754775703509</v>
       </c>
       <c r="J18">
-        <v>5.402569309988951</v>
+        <v>8.598906894830517</v>
       </c>
       <c r="K18">
-        <v>24.72540460139003</v>
+        <v>12.23507779966895</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.94991875404038</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>17.80443128043775</v>
       </c>
       <c r="O18">
-        <v>16.32966121032512</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>120.0687701967833</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.475911448279669</v>
+        <v>11.63837112321048</v>
       </c>
       <c r="D19">
-        <v>6.494810684555004</v>
+        <v>2.761643583118558</v>
       </c>
       <c r="E19">
-        <v>8.332959412437729</v>
+        <v>23.16597201326463</v>
       </c>
       <c r="F19">
-        <v>23.45080586230223</v>
+        <v>25.01115558643669</v>
       </c>
       <c r="G19">
-        <v>2.072114225310758</v>
+        <v>35.89898010192181</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.928515174748682</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>6.736300956604217</v>
       </c>
       <c r="J19">
-        <v>5.407402561227434</v>
+        <v>9.335782183857653</v>
       </c>
       <c r="K19">
-        <v>24.62065581384006</v>
+        <v>13.88871171712853</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.86859255092616</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>16.54873201627237</v>
       </c>
       <c r="O19">
-        <v>16.32083080738444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>119.450796522289</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.648260296726791</v>
+        <v>10.87694546091608</v>
       </c>
       <c r="D20">
-        <v>6.570140884456956</v>
+        <v>2.297925283086379</v>
       </c>
       <c r="E20">
-        <v>8.3737755907236</v>
+        <v>20.9025448393363</v>
       </c>
       <c r="F20">
-        <v>23.60290829911566</v>
+        <v>28.33122833180711</v>
       </c>
       <c r="G20">
-        <v>2.069589786295043</v>
+        <v>41.50735594411778</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.006823056607491</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6.994353479613673</v>
       </c>
       <c r="J20">
-        <v>5.385851226599138</v>
+        <v>10.61020848663401</v>
       </c>
       <c r="K20">
-        <v>25.08895862745574</v>
+        <v>16.6906518993129</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.23219916771624</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.17440690595015</v>
       </c>
       <c r="O20">
-        <v>16.36270572463044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>122.2961971456212</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.209248893840423</v>
+        <v>11.16250352816605</v>
       </c>
       <c r="D21">
-        <v>6.820051131050069</v>
+        <v>2.177191705099576</v>
       </c>
       <c r="E21">
-        <v>8.516782491744323</v>
+        <v>21.93845156867313</v>
       </c>
       <c r="F21">
-        <v>24.15698660968825</v>
+        <v>31.18013275041105</v>
       </c>
       <c r="G21">
-        <v>2.06119765698083</v>
+        <v>45.9636532756766</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.317816066247655</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>7.828085911149614</v>
       </c>
       <c r="J21">
-        <v>5.317020079864773</v>
+        <v>11.39914796333042</v>
       </c>
       <c r="K21">
-        <v>26.60889818534797</v>
+        <v>18.58602427951814</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.41271802276003</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>16.06242713899509</v>
       </c>
       <c r="O21">
-        <v>16.54210445644313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>131.8989378677549</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.562673359631438</v>
+        <v>11.32739378097539</v>
       </c>
       <c r="D22">
-        <v>6.980851025254137</v>
+        <v>2.296390573311194</v>
       </c>
       <c r="E22">
-        <v>8.614676569420329</v>
+        <v>22.70837775421337</v>
       </c>
       <c r="F22">
-        <v>24.55201775630118</v>
+        <v>33.0741462684949</v>
       </c>
       <c r="G22">
-        <v>2.055772179512168</v>
+        <v>48.94349708822257</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.24532709031025</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8.410722954160263</v>
       </c>
       <c r="J22">
-        <v>5.274830235579658</v>
+        <v>12.12437448823269</v>
       </c>
       <c r="K22">
-        <v>27.5628796164375</v>
+        <v>19.93654674003917</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>21.15400501274774</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>16.7276839185022</v>
       </c>
       <c r="O22">
-        <v>16.68973846351466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>138.3983181180219</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.375235884753231</v>
+        <v>11.21414947248247</v>
       </c>
       <c r="D23">
-        <v>6.895269590302011</v>
+        <v>2.219853191610168</v>
       </c>
       <c r="E23">
-        <v>8.562019592068953</v>
+        <v>22.28694196862304</v>
       </c>
       <c r="F23">
-        <v>24.33811993139965</v>
+        <v>32.10730246438938</v>
       </c>
       <c r="G23">
-        <v>2.058662941572223</v>
+        <v>47.42808992679549</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.743677278566896</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>8.097254499908795</v>
       </c>
       <c r="J23">
-        <v>5.297083244956117</v>
+        <v>11.75615939622759</v>
       </c>
       <c r="K23">
-        <v>27.05729333013597</v>
+        <v>19.25890792979868</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.76110622533071</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>16.37347910347462</v>
       </c>
       <c r="O23">
-        <v>16.60806655721754</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>134.9003929480488</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.638864384744339</v>
+        <v>10.76265264071194</v>
       </c>
       <c r="D24">
-        <v>6.566015673406365</v>
+        <v>2.262424749623668</v>
       </c>
       <c r="E24">
-        <v>8.371512218104353</v>
+        <v>20.67262529940701</v>
       </c>
       <c r="F24">
-        <v>23.59439589947811</v>
+        <v>28.56640186749225</v>
       </c>
       <c r="G24">
-        <v>2.069728060781375</v>
+        <v>41.92352600440448</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.999032715508789</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>6.986060010367172</v>
       </c>
       <c r="J24">
-        <v>5.387021568256761</v>
+        <v>10.72112551126098</v>
       </c>
       <c r="K24">
-        <v>25.06344409400956</v>
+        <v>16.94612669579666</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.21238746402975</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.04200043623229</v>
       </c>
       <c r="O24">
-        <v>16.36026456089243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>122.1462333008554</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.786174849818557</v>
+        <v>10.17099868435488</v>
       </c>
       <c r="D25">
-        <v>6.201071462427874</v>
+        <v>2.554474635175819</v>
       </c>
       <c r="E25">
-        <v>8.184679742137892</v>
+        <v>18.81462900198519</v>
       </c>
       <c r="F25">
-        <v>22.92780985042222</v>
+        <v>25.24781424483258</v>
       </c>
       <c r="G25">
-        <v>2.081965533600016</v>
+        <v>36.48609102251839</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>6.307424263594987</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>5.879457585332419</v>
       </c>
       <c r="J25">
-        <v>5.495239522149714</v>
+        <v>10.0254460041637</v>
       </c>
       <c r="K25">
-        <v>22.74062184132859</v>
+        <v>15.60441880847879</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.47280990934007</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>13.57359958033136</v>
       </c>
       <c r="O25">
-        <v>16.21328184611282</v>
+        <v>108.6640500022553</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.589945118647163</v>
+        <v>10.56605629136055</v>
       </c>
       <c r="D2">
-        <v>2.733101545912777</v>
+        <v>3.121305272944131</v>
       </c>
       <c r="E2">
-        <v>17.29076793954181</v>
+        <v>17.72439106009006</v>
       </c>
       <c r="F2">
-        <v>23.35377722505222</v>
+        <v>21.47409182247879</v>
       </c>
       <c r="G2">
-        <v>33.23645937656164</v>
+        <v>29.44961527444043</v>
       </c>
       <c r="H2">
-        <v>5.145093563633332</v>
+        <v>4.871066703768884</v>
       </c>
       <c r="I2">
-        <v>5.102169081435429</v>
+        <v>4.77503032816688</v>
       </c>
       <c r="J2">
-        <v>9.701713296363595</v>
+        <v>9.802649362574144</v>
       </c>
       <c r="K2">
-        <v>15.04124433703951</v>
+        <v>13.51384200836295</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.82591062212202</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.963122359321171</v>
       </c>
       <c r="N2">
-        <v>12.43762243423106</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>98.52812151056291</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>12.41517755806669</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>98.43671847952669</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.205712994087637</v>
+        <v>10.00065826699462</v>
       </c>
       <c r="D3">
-        <v>2.858202776444017</v>
+        <v>3.160540439834224</v>
       </c>
       <c r="E3">
-        <v>16.19554157895786</v>
+        <v>16.57386879188864</v>
       </c>
       <c r="F3">
-        <v>22.07193942753006</v>
+        <v>20.49090785409111</v>
       </c>
       <c r="G3">
-        <v>31.01353942041979</v>
+        <v>27.64198800442432</v>
       </c>
       <c r="H3">
-        <v>4.378038345822195</v>
+        <v>4.177864815211367</v>
       </c>
       <c r="I3">
-        <v>4.57992072881652</v>
+        <v>4.3413916748351</v>
       </c>
       <c r="J3">
-        <v>9.506687248509717</v>
+        <v>9.687392097752307</v>
       </c>
       <c r="K3">
-        <v>14.70390668939416</v>
+        <v>13.43913726095071</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.91862804198168</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.484745817799027</v>
       </c>
       <c r="N3">
-        <v>11.61596543459024</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>91.3944996304387</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>11.5821066244958</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>91.34025359058647</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.956155447500674</v>
+        <v>9.635818639168432</v>
       </c>
       <c r="D4">
-        <v>2.933096094666782</v>
+        <v>3.183705392361528</v>
       </c>
       <c r="E4">
-        <v>15.56454409080493</v>
+        <v>15.83518147149859</v>
       </c>
       <c r="F4">
-        <v>21.32252386308345</v>
+        <v>19.91897884682466</v>
       </c>
       <c r="G4">
-        <v>29.70344083345924</v>
+        <v>26.59272885887627</v>
       </c>
       <c r="H4">
-        <v>3.912844128764258</v>
+        <v>3.756916502002584</v>
       </c>
       <c r="I4">
-        <v>4.259599492249186</v>
+        <v>4.074875682598653</v>
       </c>
       <c r="J4">
-        <v>9.411332838678625</v>
+        <v>9.627531747149398</v>
       </c>
       <c r="K4">
-        <v>14.54885865251274</v>
+        <v>13.43129380783293</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.9797862003364</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.277228212713458</v>
       </c>
       <c r="N4">
-        <v>11.08529149343045</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>86.85431125041529</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>11.04535802281834</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>86.81799455138372</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.860193604256448</v>
+        <v>9.491758454813553</v>
       </c>
       <c r="D5">
-        <v>2.964942473552817</v>
+        <v>3.194947868501403</v>
       </c>
       <c r="E5">
-        <v>15.31363673070063</v>
+        <v>15.57136351833564</v>
       </c>
       <c r="F5">
-        <v>21.00710957882581</v>
+        <v>19.67633291120956</v>
       </c>
       <c r="G5">
-        <v>29.14819733822258</v>
+        <v>26.14816122550658</v>
       </c>
       <c r="H5">
-        <v>3.723488191314343</v>
+        <v>3.585495815102722</v>
       </c>
       <c r="I5">
-        <v>4.128405764506341</v>
+        <v>3.965859612633424</v>
       </c>
       <c r="J5">
-        <v>9.371228439059978</v>
+        <v>9.599869782442259</v>
       </c>
       <c r="K5">
-        <v>14.48116764966906</v>
+        <v>13.42258092956616</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.99517054419153</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.202831105707894</v>
       </c>
       <c r="N5">
-        <v>10.86135488824667</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>84.96013921116091</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10.81921501198094</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>84.93015205199616</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.855027154846699</v>
+        <v>9.478456959309819</v>
       </c>
       <c r="D6">
-        <v>2.972269625580066</v>
+        <v>3.199199202452701</v>
       </c>
       <c r="E6">
-        <v>15.27614803541086</v>
+        <v>15.53137218666581</v>
       </c>
       <c r="F6">
-        <v>20.93203505931901</v>
+        <v>19.61561774359711</v>
       </c>
       <c r="G6">
-        <v>29.01462012457374</v>
+        <v>26.03668901690613</v>
       </c>
       <c r="H6">
-        <v>3.691392256003318</v>
+        <v>3.556462147849176</v>
       </c>
       <c r="I6">
-        <v>4.106271537092673</v>
+        <v>3.947819101560949</v>
       </c>
       <c r="J6">
-        <v>9.356594546319172</v>
+        <v>9.588435710377642</v>
       </c>
       <c r="K6">
-        <v>14.45078172637155</v>
+        <v>13.40468761174475</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.98512783876691</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.178107951832935</v>
       </c>
       <c r="N6">
-        <v>10.82273087639963</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>84.64272257753619</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10.78032943458639</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>84.6137535109111</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.984371397341704</v>
+        <v>9.654042189493801</v>
       </c>
       <c r="D7">
-        <v>2.939216745541319</v>
+        <v>3.19455960030493</v>
       </c>
       <c r="E7">
-        <v>15.57369631938181</v>
+        <v>15.83951399366747</v>
       </c>
       <c r="F7">
-        <v>21.25562338330746</v>
+        <v>19.82580534060979</v>
       </c>
       <c r="G7">
-        <v>29.58274024602331</v>
+        <v>26.56183917863401</v>
       </c>
       <c r="H7">
-        <v>3.908441245385284</v>
+        <v>3.752188381488068</v>
       </c>
       <c r="I7">
-        <v>4.25665555670161</v>
+        <v>4.072373758529124</v>
       </c>
       <c r="J7">
-        <v>9.388126048370717</v>
+        <v>9.545400500968348</v>
       </c>
       <c r="K7">
-        <v>14.49370449872743</v>
+        <v>13.36477015915073</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.93122136656309</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.221680686875835</v>
       </c>
       <c r="N7">
-        <v>11.07959375033068</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>86.82851441561698</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>11.0408875946781</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>86.79216302378373</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.497667111434216</v>
+        <v>10.383214535607</v>
       </c>
       <c r="D8">
-        <v>2.7846824368098</v>
+        <v>3.158361405842703</v>
       </c>
       <c r="E8">
-        <v>16.93812447380357</v>
+        <v>17.34114304781888</v>
       </c>
       <c r="F8">
-        <v>22.82489699170531</v>
+        <v>20.9508811769312</v>
       </c>
       <c r="G8">
-        <v>32.31777831434658</v>
+        <v>28.93079342393185</v>
       </c>
       <c r="H8">
-        <v>4.876586794437071</v>
+        <v>4.626099203706976</v>
       </c>
       <c r="I8">
-        <v>4.919694657195875</v>
+        <v>4.621725733812075</v>
       </c>
       <c r="J8">
-        <v>9.599241739614616</v>
+        <v>9.528231382505025</v>
       </c>
       <c r="K8">
-        <v>14.84172626258131</v>
+        <v>13.35122420943448</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.76738842405422</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.672188234793288</v>
       </c>
       <c r="N8">
-        <v>12.15631379657132</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>96.09853418750288</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>12.13310214545149</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>96.02044817538388</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.3348965748167</v>
+        <v>11.64916963768261</v>
       </c>
       <c r="D9">
-        <v>2.447633630384716</v>
+        <v>3.047509108054999</v>
       </c>
       <c r="E9">
-        <v>19.43827671074589</v>
+        <v>19.97509490475501</v>
       </c>
       <c r="F9">
-        <v>26.3398334712851</v>
+        <v>23.65943673346176</v>
       </c>
       <c r="G9">
-        <v>38.43588356000248</v>
+        <v>34.12503675193445</v>
       </c>
       <c r="H9">
-        <v>6.864002014661157</v>
+        <v>6.415907767360733</v>
       </c>
       <c r="I9">
-        <v>6.247582601012485</v>
+        <v>5.717936861148694</v>
       </c>
       <c r="J9">
-        <v>10.27717586170549</v>
+        <v>9.859062151915202</v>
       </c>
       <c r="K9">
-        <v>16.10278556580976</v>
+        <v>13.84719572290901</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.60459406304873</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.17649455014538</v>
       </c>
       <c r="N9">
-        <v>14.07989775248927</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>113.2176218762518</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>14.09254122314757</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>113.0033304265541</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.94632502208152</v>
+        <v>12.50787637344862</v>
       </c>
       <c r="D10">
-        <v>2.208502629888009</v>
+        <v>3.013695792188327</v>
       </c>
       <c r="E10">
-        <v>21.34720851420419</v>
+        <v>21.95566624797664</v>
       </c>
       <c r="F10">
-        <v>29.32079477746824</v>
+        <v>25.67617380657956</v>
       </c>
       <c r="G10">
-        <v>43.05505977705151</v>
+        <v>38.44155310473042</v>
       </c>
       <c r="H10">
-        <v>8.442451023052563</v>
+        <v>7.823472471176157</v>
       </c>
       <c r="I10">
-        <v>7.276203663033054</v>
+        <v>6.555990353404459</v>
       </c>
       <c r="J10">
-        <v>10.84768446397642</v>
+        <v>9.748526853833113</v>
       </c>
       <c r="K10">
-        <v>17.28917482316186</v>
+        <v>14.21510279693698</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.3298665051711</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.22647211984786</v>
       </c>
       <c r="N10">
-        <v>15.55608785623581</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>125.5534397754178</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>15.60728875872598</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>125.165886351937</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.93706346465846</v>
+        <v>13.39475388870629</v>
       </c>
       <c r="D11">
-        <v>2.686046069531959</v>
+        <v>3.381373007105059</v>
       </c>
       <c r="E11">
-        <v>24.26284759147484</v>
+        <v>24.78701850506549</v>
       </c>
       <c r="F11">
-        <v>28.74921709007607</v>
+        <v>24.80911026542503</v>
       </c>
       <c r="G11">
-        <v>41.79619480875392</v>
+        <v>38.21888177525543</v>
       </c>
       <c r="H11">
-        <v>9.362465979418717</v>
+        <v>8.676483650796918</v>
       </c>
       <c r="I11">
-        <v>7.75148346407165</v>
+        <v>6.939779733021606</v>
       </c>
       <c r="J11">
-        <v>10.34320798764431</v>
+        <v>8.39321629479088</v>
       </c>
       <c r="K11">
-        <v>16.3874635994602</v>
+        <v>12.72268972784458</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10.99476275516525</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.13605389993313</v>
       </c>
       <c r="N11">
-        <v>17.5147367028917</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>131.2315201852585</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>17.57946738066977</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>130.7339520742747</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.64523790715628</v>
+        <v>13.97385410798768</v>
       </c>
       <c r="D12">
-        <v>3.137595092120151</v>
+        <v>3.722791114827934</v>
       </c>
       <c r="E12">
-        <v>26.35235624890367</v>
+        <v>26.79792457520368</v>
       </c>
       <c r="F12">
-        <v>27.7038898144657</v>
+        <v>23.75782001640753</v>
       </c>
       <c r="G12">
-        <v>39.91016883071065</v>
+        <v>37.04692234225136</v>
       </c>
       <c r="H12">
-        <v>10.09321392523916</v>
+        <v>9.407640638458496</v>
       </c>
       <c r="I12">
-        <v>7.944479765212001</v>
+        <v>7.096175976298374</v>
       </c>
       <c r="J12">
-        <v>9.849204858472183</v>
+        <v>7.50193653813975</v>
       </c>
       <c r="K12">
-        <v>15.3187879412433</v>
+        <v>11.69803712121858</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.01161026522739</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.78103920297843</v>
       </c>
       <c r="N12">
-        <v>18.89674345734217</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>133.4169603055693</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>18.96184552104953</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>132.8702906717229</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.23625826943889</v>
+        <v>14.42684927197703</v>
       </c>
       <c r="D13">
-        <v>3.530867452614432</v>
+        <v>4.057878887084664</v>
       </c>
       <c r="E13">
-        <v>28.00957710648341</v>
+        <v>28.38086071110019</v>
       </c>
       <c r="F13">
-        <v>26.02959989603314</v>
+        <v>22.38479705049497</v>
       </c>
       <c r="G13">
-        <v>37.06903468417381</v>
+        <v>34.6367104161793</v>
       </c>
       <c r="H13">
-        <v>10.67210527006384</v>
+        <v>10.03878398120307</v>
       </c>
       <c r="I13">
-        <v>7.912867173297528</v>
+        <v>7.075132364281647</v>
       </c>
       <c r="J13">
-        <v>9.123753362913508</v>
+        <v>7.017597000354768</v>
       </c>
       <c r="K13">
-        <v>13.85741529386109</v>
+        <v>10.51784697861756</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.211975772366692</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.09627808225013</v>
       </c>
       <c r="N13">
-        <v>19.95073444639443</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>132.9451889974296</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>20.0068267715112</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>132.4112436374278</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.61162972650938</v>
+        <v>14.70007315010972</v>
       </c>
       <c r="D14">
-        <v>3.79209868970615</v>
+        <v>4.252888042392908</v>
       </c>
       <c r="E14">
-        <v>29.00215217727522</v>
+        <v>29.32331313343303</v>
       </c>
       <c r="F14">
-        <v>24.52546180805398</v>
+        <v>21.23208239149652</v>
       </c>
       <c r="G14">
-        <v>34.56538905192944</v>
+        <v>32.3259126081622</v>
       </c>
       <c r="H14">
-        <v>11.04479434701046</v>
+        <v>10.46875321750217</v>
       </c>
       <c r="I14">
-        <v>7.789663072890001</v>
+        <v>6.980485628313746</v>
       </c>
       <c r="J14">
-        <v>8.489804836413075</v>
+        <v>6.844770230503316</v>
       </c>
       <c r="K14">
-        <v>12.614935280332</v>
+        <v>9.577059504216502</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.730038201675509</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.44634146392835</v>
       </c>
       <c r="N14">
-        <v>20.55774209285939</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>131.4123384755403</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>20.6048084926615</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>130.9143541888144</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.6859042748076</v>
+        <v>14.74756080171541</v>
       </c>
       <c r="D15">
-        <v>3.84844829984058</v>
+        <v>4.283190584545709</v>
       </c>
       <c r="E15">
-        <v>29.15634487214899</v>
+        <v>29.46593994490446</v>
       </c>
       <c r="F15">
-        <v>23.9923044701485</v>
+        <v>20.84917210389854</v>
       </c>
       <c r="G15">
-        <v>33.69131944409296</v>
+        <v>31.4561961048694</v>
       </c>
       <c r="H15">
-        <v>11.07627001321029</v>
+        <v>10.52289850026742</v>
       </c>
       <c r="I15">
-        <v>7.710053657972374</v>
+        <v>6.918322387985432</v>
       </c>
       <c r="J15">
-        <v>8.271153890217878</v>
+        <v>6.870359444365662</v>
       </c>
       <c r="K15">
-        <v>12.19082931623215</v>
+        <v>9.275565610705666</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.639819681723793</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.18899424476638</v>
       </c>
       <c r="N15">
-        <v>20.63462746640802</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>130.4752856791723</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>20.6780860196708</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>129.9982464999088</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.37912944206846</v>
+        <v>14.42899531816436</v>
       </c>
       <c r="D16">
-        <v>3.71095839722292</v>
+        <v>4.113018713495128</v>
       </c>
       <c r="E16">
-        <v>28.18028503775826</v>
+        <v>28.49733484051846</v>
       </c>
       <c r="F16">
-        <v>22.66584903819744</v>
+        <v>20.07392774719297</v>
       </c>
       <c r="G16">
-        <v>31.61440397040049</v>
+        <v>28.99550006900195</v>
       </c>
       <c r="H16">
-        <v>10.33695950644861</v>
+        <v>9.862026810300865</v>
       </c>
       <c r="I16">
-        <v>7.241695745424999</v>
+        <v>6.544829405740839</v>
       </c>
       <c r="J16">
-        <v>7.849876233254058</v>
+        <v>7.498136873804026</v>
       </c>
       <c r="K16">
-        <v>11.24701124916655</v>
+        <v>8.814382353533629</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.972332489758953</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.305971032083287</v>
       </c>
       <c r="N16">
-        <v>19.89311777171297</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>125.1507125933706</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>19.92138739958835</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>124.7791720552615</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>12.92753667877849</v>
+        <v>14.0122504780364</v>
       </c>
       <c r="D17">
-        <v>3.454477919069385</v>
+        <v>3.943299980375918</v>
       </c>
       <c r="E17">
-        <v>26.85905926827784</v>
+        <v>27.20420037260178</v>
       </c>
       <c r="F17">
-        <v>22.53284424012294</v>
+        <v>20.12613012188438</v>
       </c>
       <c r="G17">
-        <v>31.51136890648029</v>
+        <v>28.54979069651804</v>
       </c>
       <c r="H17">
-        <v>9.521959494903653</v>
+        <v>9.074110540684782</v>
       </c>
       <c r="I17">
-        <v>6.955343437893044</v>
+        <v>6.313196347072343</v>
       </c>
       <c r="J17">
-        <v>8.046406800956319</v>
+        <v>7.992885024913576</v>
       </c>
       <c r="K17">
-        <v>11.27763064947164</v>
+        <v>9.415527616682361</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.469969952670587</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.005402336708485</v>
       </c>
       <c r="N17">
-        <v>18.97252529328938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>121.9183692278355</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>18.99339444701699</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>121.6004760572885</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>12.29382001851584</v>
+        <v>13.46957381098794</v>
       </c>
       <c r="D18">
-        <v>3.078868955655886</v>
+        <v>3.687133466806213</v>
       </c>
       <c r="E18">
-        <v>25.09638019006858</v>
+        <v>25.49600186117524</v>
       </c>
       <c r="F18">
-        <v>23.44659866398733</v>
+        <v>20.97775937996368</v>
       </c>
       <c r="G18">
-        <v>33.16453971798219</v>
+        <v>29.74699199715851</v>
       </c>
       <c r="H18">
-        <v>8.62259100738663</v>
+        <v>8.165155508848915</v>
       </c>
       <c r="I18">
-        <v>6.789754775703509</v>
+        <v>6.175935204190297</v>
       </c>
       <c r="J18">
-        <v>8.598906894830517</v>
+        <v>8.565775232367614</v>
       </c>
       <c r="K18">
-        <v>12.23507779966895</v>
+        <v>10.53763346195161</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>10.22290751283475</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.252015466775902</v>
       </c>
       <c r="N18">
-        <v>17.80443128043775</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>120.0687701967833</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>17.82188676097156</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>119.7778331867627</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.63837112321048</v>
+        <v>12.93782188268411</v>
       </c>
       <c r="D19">
-        <v>2.761643583118558</v>
+        <v>3.408110321914711</v>
       </c>
       <c r="E19">
-        <v>23.16597201326463</v>
+        <v>23.63721288558888</v>
       </c>
       <c r="F19">
-        <v>25.01115558643669</v>
+        <v>22.31840950036061</v>
       </c>
       <c r="G19">
-        <v>35.89898010192181</v>
+        <v>31.94619534486715</v>
       </c>
       <c r="H19">
-        <v>7.928515174748682</v>
+        <v>7.438259569765532</v>
       </c>
       <c r="I19">
-        <v>6.736300956604217</v>
+        <v>6.129516622236849</v>
       </c>
       <c r="J19">
-        <v>9.335782183857653</v>
+        <v>9.173870995763474</v>
       </c>
       <c r="K19">
-        <v>13.88871171712853</v>
+        <v>11.89836307652643</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.09750428644202</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.909475004144122</v>
       </c>
       <c r="N19">
-        <v>16.54873201627237</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>119.450796522289</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>16.56760515075616</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>119.1668724603169</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.87694546091608</v>
+        <v>12.39590909793745</v>
       </c>
       <c r="D20">
-        <v>2.297925283086379</v>
+        <v>3.032595806145902</v>
       </c>
       <c r="E20">
-        <v>20.9025448393363</v>
+        <v>21.49712009724716</v>
       </c>
       <c r="F20">
-        <v>28.33122833180711</v>
+        <v>25.00076017910215</v>
       </c>
       <c r="G20">
-        <v>41.50735594411778</v>
+        <v>36.79543864553836</v>
       </c>
       <c r="H20">
-        <v>8.006823056607491</v>
+        <v>7.438902967422967</v>
       </c>
       <c r="I20">
-        <v>6.994353479613673</v>
+        <v>6.3323321120217</v>
       </c>
       <c r="J20">
-        <v>10.61020848663401</v>
+        <v>9.928979228546728</v>
       </c>
       <c r="K20">
-        <v>16.6906518993129</v>
+        <v>14.01004409270078</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.34358508168486</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>11.62122429583199</v>
       </c>
       <c r="N20">
-        <v>15.17440690595015</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>122.2961971456212</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>15.21276177702661</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>121.9646068407116</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.16250352816605</v>
+        <v>12.76243690237601</v>
       </c>
       <c r="D21">
-        <v>2.177191705099576</v>
+        <v>3.034979231050726</v>
       </c>
       <c r="E21">
-        <v>21.93845156867313</v>
+        <v>22.56200468542182</v>
       </c>
       <c r="F21">
-        <v>31.18013275041105</v>
+        <v>26.70123227373553</v>
       </c>
       <c r="G21">
-        <v>45.9636532756766</v>
+        <v>41.9490578961914</v>
       </c>
       <c r="H21">
-        <v>9.317816066247655</v>
+        <v>8.588881709492725</v>
       </c>
       <c r="I21">
-        <v>7.828085911149614</v>
+        <v>6.99217005518304</v>
       </c>
       <c r="J21">
-        <v>11.39914796333042</v>
+        <v>8.881649259765716</v>
       </c>
       <c r="K21">
-        <v>18.58602427951814</v>
+        <v>14.43290261205369</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.14155987098905</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.23549619445095</v>
       </c>
       <c r="N21">
-        <v>16.06242713899509</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>131.8989378677549</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>16.15008712800674</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>131.3770177668094</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.32739378097539</v>
+        <v>12.97368156542452</v>
       </c>
       <c r="D22">
-        <v>2.296390573311194</v>
+        <v>3.047060671261011</v>
       </c>
       <c r="E22">
-        <v>22.70837775421337</v>
+        <v>23.34722381492961</v>
       </c>
       <c r="F22">
-        <v>33.0741462684949</v>
+        <v>27.82726528903804</v>
       </c>
       <c r="G22">
-        <v>48.94349708822257</v>
+        <v>45.38801935061127</v>
       </c>
       <c r="H22">
-        <v>10.24532709031025</v>
+        <v>9.396118887957277</v>
       </c>
       <c r="I22">
-        <v>8.410722954160263</v>
+        <v>7.44912514090755</v>
       </c>
       <c r="J22">
-        <v>12.12437448823269</v>
+        <v>8.124345024620922</v>
       </c>
       <c r="K22">
-        <v>19.93654674003917</v>
+        <v>15.16639053396435</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.99280135950413</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.32340470379117</v>
       </c>
       <c r="N22">
-        <v>16.7276839185022</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>138.3983181180219</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>16.84947032383597</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>137.6999880109271</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.21414947248247</v>
+        <v>12.85442440350057</v>
       </c>
       <c r="D23">
-        <v>2.219853191610168</v>
+        <v>3.017859720685974</v>
       </c>
       <c r="E23">
-        <v>22.28694196862304</v>
+        <v>22.92456182995724</v>
       </c>
       <c r="F23">
-        <v>32.10730246438938</v>
+        <v>27.33241105145732</v>
       </c>
       <c r="G23">
-        <v>47.42808992679549</v>
+        <v>43.47968846339411</v>
       </c>
       <c r="H23">
-        <v>9.743677278566896</v>
+        <v>8.961659540977378</v>
       </c>
       <c r="I23">
-        <v>8.097254499908795</v>
+        <v>7.204467460653305</v>
       </c>
       <c r="J23">
-        <v>11.75615939622759</v>
+        <v>8.703135766183461</v>
       </c>
       <c r="K23">
-        <v>19.25890792979868</v>
+        <v>14.86019498683781</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.13597142391458</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.79704032040824</v>
       </c>
       <c r="N23">
-        <v>16.37347910347462</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>134.9003929480488</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>16.47477795853417</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>134.3035740842338</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.76265264071194</v>
+        <v>12.29269107160381</v>
       </c>
       <c r="D24">
-        <v>2.262424749623668</v>
+        <v>2.993311852985504</v>
       </c>
       <c r="E24">
-        <v>20.67262529940701</v>
+        <v>21.2764808383344</v>
       </c>
       <c r="F24">
-        <v>28.56640186749225</v>
+        <v>25.21114970711165</v>
       </c>
       <c r="G24">
-        <v>41.92352600440448</v>
+        <v>37.13584772315799</v>
       </c>
       <c r="H24">
-        <v>7.999032715508789</v>
+        <v>7.431838438283456</v>
       </c>
       <c r="I24">
-        <v>6.986060010367172</v>
+        <v>6.323603816264903</v>
       </c>
       <c r="J24">
-        <v>10.72112551126098</v>
+        <v>10.0324729070708</v>
       </c>
       <c r="K24">
-        <v>16.94612669579666</v>
+        <v>14.23261629674741</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.49716207695859</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>11.74204288984556</v>
       </c>
       <c r="N24">
-        <v>15.04200043623229</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>122.1462333008554</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>15.08038878198112</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>121.8161411933002</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.17099868435488</v>
+        <v>11.38163265338033</v>
       </c>
       <c r="D25">
-        <v>2.554474635175819</v>
+        <v>3.086607526030618</v>
       </c>
       <c r="E25">
-        <v>18.81462900198519</v>
+        <v>19.31776576448386</v>
       </c>
       <c r="F25">
-        <v>25.24781424483258</v>
+        <v>22.8438615932562</v>
       </c>
       <c r="G25">
-        <v>36.48609102251839</v>
+        <v>32.35498639943923</v>
       </c>
       <c r="H25">
-        <v>6.307424263594987</v>
+        <v>5.917100019126019</v>
       </c>
       <c r="I25">
-        <v>5.879457585332419</v>
+        <v>5.41754328015984</v>
       </c>
       <c r="J25">
-        <v>10.0254460041637</v>
+        <v>9.811037049105344</v>
       </c>
       <c r="K25">
-        <v>15.60441880847879</v>
+        <v>13.6095612909761</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.60470322222509</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.327532500941317</v>
       </c>
       <c r="N25">
-        <v>13.57359958033136</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>108.6640500022553</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>13.57442525110096</v>
       </c>
       <c r="Q25">
+        <v>108.4960392454779</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
